--- a/excel/new_region.xlsx
+++ b/excel/new_region.xlsx
@@ -13,13 +13,14 @@
     <sheet name="ORB" sheetId="4" r:id="rId4"/>
     <sheet name="CTXsp" sheetId="5" r:id="rId5"/>
     <sheet name="MO" sheetId="6" r:id="rId6"/>
+    <sheet name="VISp" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4606" uniqueCount="527">
   <si>
     <t>date</t>
   </si>
@@ -399,39 +400,39 @@
     <t>Gad2-IRES-Cre;Ai14-504549.09.06.01</t>
   </si>
   <si>
+    <t>Gad2-IRES-Cre;Ai14-504549.05.06.01</t>
+  </si>
+  <si>
+    <t>Gad2-IRES-Cre;Ai14-504549.05.06.03</t>
+  </si>
+  <si>
     <t>Gad2-IRES-Cre;Ai14-504549.05.06.02</t>
   </si>
   <si>
-    <t>Gad2-IRES-Cre;Ai14-504549.05.06.03</t>
-  </si>
-  <si>
-    <t>Gad2-IRES-Cre;Ai14-504549.05.06.01</t>
-  </si>
-  <si>
     <t>Gad2-IRES-Cre;Ai14-504549.11.06.01</t>
   </si>
   <si>
     <t>Gad2-IRES-Cre;Ai14-504549.12.06.01</t>
   </si>
   <si>
+    <t>Slc32a1-IRES-Cre;Ai14-504558.10.02.03</t>
+  </si>
+  <si>
+    <t>Slc32a1-IRES-Cre;Ai14-504558.10.02.04</t>
+  </si>
+  <si>
+    <t>Slc32a1-IRES-Cre;Ai14-504558.10.02.02</t>
+  </si>
+  <si>
     <t>Slc32a1-IRES-Cre;Ai14-504558.10.02.01</t>
   </si>
   <si>
-    <t>Slc32a1-IRES-Cre;Ai14-504558.10.02.04</t>
-  </si>
-  <si>
-    <t>Slc32a1-IRES-Cre;Ai14-504558.10.02.03</t>
-  </si>
-  <si>
-    <t>Slc32a1-IRES-Cre;Ai14-504558.10.02.02</t>
+    <t>Slc32a1-IRES-Cre;Ai14-504558.10.01.02</t>
   </si>
   <si>
     <t>Slc32a1-IRES-Cre;Ai14-504558.10.01.01</t>
   </si>
   <si>
-    <t>Slc32a1-IRES-Cre;Ai14-504558.10.01.02</t>
-  </si>
-  <si>
     <t>Slc32a1-IRES-Cre;Ai14-504558.07.02.01</t>
   </si>
   <si>
@@ -444,12 +445,12 @@
     <t>Vip-IRES-Cre;Ai14-504182.08.01.01</t>
   </si>
   <si>
+    <t>Vip-IRES-Cre;Ai14-504182.11.01.02</t>
+  </si>
+  <si>
     <t>Vip-IRES-Cre;Ai14-504182.11.01.01</t>
   </si>
   <si>
-    <t>Vip-IRES-Cre;Ai14-504182.11.01.02</t>
-  </si>
-  <si>
     <t>Vip-IRES-Cre;Ai14-504182.09.02.01</t>
   </si>
   <si>
@@ -459,48 +460,48 @@
     <t>Gad2-IRES-Cre;Ai14-504550.09.06.01</t>
   </si>
   <si>
+    <t>Gad2-IRES-Cre;Ai14-504550.07.06.01</t>
+  </si>
+  <si>
     <t>Gad2-IRES-Cre;Ai14-504550.07.06.02</t>
   </si>
   <si>
-    <t>Gad2-IRES-Cre;Ai14-504550.07.06.01</t>
-  </si>
-  <si>
     <t>Slc32a1-IRES-Cre;Ai14-504559.09.01.01</t>
   </si>
   <si>
+    <t>Slc32a1-IRES-Cre;Ai14-504559.10.01.01</t>
+  </si>
+  <si>
     <t>Slc32a1-IRES-Cre;Ai14-504559.10.01.02</t>
   </si>
   <si>
-    <t>Slc32a1-IRES-Cre;Ai14-504559.10.01.01</t>
-  </si>
-  <si>
     <t>Slc32a1-IRES-Cre;Ai14-504559.09.02.01</t>
   </si>
   <si>
+    <t>Slc32a1-IRES-Cre;Ai14-504559.11.01.01</t>
+  </si>
+  <si>
     <t>Slc32a1-IRES-Cre;Ai14-504559.11.01.02</t>
   </si>
   <si>
-    <t>Slc32a1-IRES-Cre;Ai14-504559.11.01.01</t>
-  </si>
-  <si>
     <t>Gad2-IRES-Cre;Ai14-504550.04.06.01</t>
   </si>
   <si>
+    <t>Sncg-IRES2-FlpO-neo;Ai65F-505711.11.01.01</t>
+  </si>
+  <si>
     <t>Sncg-IRES2-FlpO-neo;Ai65F-505711.11.01.02</t>
   </si>
   <si>
-    <t>Sncg-IRES2-FlpO-neo;Ai65F-505711.11.01.01</t>
-  </si>
-  <si>
     <t>Sncg-IRES2-FlpO-neo;Ai65F-505711.08.02.01</t>
   </si>
   <si>
+    <t>Gad2-IRES-Cre;Ai14-504551.07.06.01</t>
+  </si>
+  <si>
     <t>Gad2-IRES-Cre;Ai14-504551.07.06.02</t>
   </si>
   <si>
-    <t>Gad2-IRES-Cre;Ai14-504551.07.06.01</t>
-  </si>
-  <si>
     <t>Gad2-IRES-Cre;Ai14-504551.07.06.03</t>
   </si>
   <si>
@@ -510,12 +511,12 @@
     <t>Gad2-IRES-Cre;Ai14-504551.06.06.02</t>
   </si>
   <si>
+    <t>Gad2-IRES-Cre;Ai14-504551.10.06.03</t>
+  </si>
+  <si>
     <t>Gad2-IRES-Cre;Ai14-504551.10.06.02</t>
   </si>
   <si>
-    <t>Gad2-IRES-Cre;Ai14-504551.10.06.03</t>
-  </si>
-  <si>
     <t>Gad2-IRES-Cre;Ai14-504551.10.06.01</t>
   </si>
   <si>
@@ -528,27 +529,27 @@
     <t>Slc32a1-IRES-Cre;Ai14-504560.09.02.01</t>
   </si>
   <si>
+    <t>Slc32a1-IRES-Cre;Ai14-504560.08.02.02</t>
+  </si>
+  <si>
+    <t>Slc32a1-IRES-Cre;Ai14-504560.08.02.03</t>
+  </si>
+  <si>
+    <t>Slc32a1-IRES-Cre;Ai14-504560.08.02.04</t>
+  </si>
+  <si>
     <t>Slc32a1-IRES-Cre;Ai14-504560.08.02.01</t>
   </si>
   <si>
-    <t>Slc32a1-IRES-Cre;Ai14-504560.08.02.04</t>
-  </si>
-  <si>
-    <t>Slc32a1-IRES-Cre;Ai14-504560.08.02.03</t>
-  </si>
-  <si>
-    <t>Slc32a1-IRES-Cre;Ai14-504560.08.02.02</t>
+    <t>Slc32a1-IRES-Cre;Ai14-504560.10.01.02</t>
+  </si>
+  <si>
+    <t>Slc32a1-IRES-Cre;Ai14-504560.10.01.03</t>
   </si>
   <si>
     <t>Slc32a1-IRES-Cre;Ai14-504560.10.01.01</t>
   </si>
   <si>
-    <t>Slc32a1-IRES-Cre;Ai14-504560.10.01.03</t>
-  </si>
-  <si>
-    <t>Slc32a1-IRES-Cre;Ai14-504560.10.01.02</t>
-  </si>
-  <si>
     <t>Slc32a1-IRES-Cre;Ai14-504560.10.02.01</t>
   </si>
   <si>
@@ -570,12 +571,12 @@
     <t>Sncg-IRES2-FlpO-neo;Ai65F-505713.08.01.02</t>
   </si>
   <si>
+    <t>Rbp4-Cre_KL100;Ai14-506065.09.06.02</t>
+  </si>
+  <si>
     <t>Rbp4-Cre_KL100;Ai14-506065.09.06.01</t>
   </si>
   <si>
-    <t>Rbp4-Cre_KL100;Ai14-506065.09.06.02</t>
-  </si>
-  <si>
     <t>Rbp4-Cre_KL100;Ai14-506065.08.06.01</t>
   </si>
   <si>
@@ -585,33 +586,33 @@
     <t>Rbp4-Cre_KL100;Ai14-506065.07.06.01</t>
   </si>
   <si>
+    <t>Rbp4-Cre_KL100;Ai14-506065.10.06.02</t>
+  </si>
+  <si>
     <t>Rbp4-Cre_KL100;Ai14-506065.10.06.01</t>
   </si>
   <si>
-    <t>Rbp4-Cre_KL100;Ai14-506065.10.06.02</t>
-  </si>
-  <si>
     <t>Rbp4-Cre_KL100;Ai14-506065.06.06.01</t>
   </si>
   <si>
+    <t>Rbp4-Cre_KL100;Ai14-506065.05.06.02</t>
+  </si>
+  <si>
     <t>Rbp4-Cre_KL100;Ai14-506065.05.06.01</t>
   </si>
   <si>
-    <t>Rbp4-Cre_KL100;Ai14-506065.05.06.02</t>
-  </si>
-  <si>
     <t>Esr2-IRES2-Cre;Ai14-506383.06.01.01</t>
   </si>
   <si>
+    <t>Esr2-IRES2-Cre;Ai14-506383.04.02.01</t>
+  </si>
+  <si>
+    <t>Esr2-IRES2-Cre;Ai14-506383.04.02.03</t>
+  </si>
+  <si>
     <t>Esr2-IRES2-Cre;Ai14-506383.04.02.02</t>
   </si>
   <si>
-    <t>Esr2-IRES2-Cre;Ai14-506383.04.02.03</t>
-  </si>
-  <si>
-    <t>Esr2-IRES2-Cre;Ai14-506383.04.02.01</t>
-  </si>
-  <si>
     <t>Esr2-IRES2-Cre;Ai14-506383.05.01.01</t>
   </si>
   <si>
@@ -627,54 +628,54 @@
     <t>Penk-IRES2-Cre-neo;Slc17a6-IRES2-FlpO-505762-Ai65.09.02.01</t>
   </si>
   <si>
+    <t>Penk-IRES2-Cre-neo;Slc17a6-IRES2-FlpO-505762-Ai65.10.02.01</t>
+  </si>
+  <si>
     <t>Penk-IRES2-Cre-neo;Slc17a6-IRES2-FlpO-505762-Ai65.10.02.02</t>
   </si>
   <si>
-    <t>Penk-IRES2-Cre-neo;Slc17a6-IRES2-FlpO-505762-Ai65.10.02.01</t>
+    <t>Htr3a-Cre_NO152;Ai14-506092.09.06.01</t>
   </si>
   <si>
     <t>Htr3a-Cre_NO152;Ai14-506092.09.06.02</t>
   </si>
   <si>
-    <t>Htr3a-Cre_NO152;Ai14-506092.09.06.01</t>
-  </si>
-  <si>
     <t>Htr3a-Cre_NO152;Ai14-506092.09.06.04</t>
   </si>
   <si>
     <t>Htr3a-Cre_NO152;Ai14-506092.08.06.01</t>
   </si>
   <si>
+    <t>Htr3a-Cre_NO152;Ai14-506092.07.06.02</t>
+  </si>
+  <si>
     <t>Htr3a-Cre_NO152;Ai14-506092.07.06.01</t>
   </si>
   <si>
-    <t>Htr3a-Cre_NO152;Ai14-506092.07.06.02</t>
-  </si>
-  <si>
     <t>Esr2-IRES2-Cre;Ai14-506384.03.02.02</t>
   </si>
   <si>
+    <t>Esr2-IRES2-Cre;Ai14-506384.03.02.03</t>
+  </si>
+  <si>
     <t>Esr2-IRES2-Cre;Ai14-506384.03.02.01</t>
   </si>
   <si>
-    <t>Esr2-IRES2-Cre;Ai14-506384.03.02.03</t>
-  </si>
-  <si>
     <t>Esr2-IRES2-Cre;Ai14-506384.02.01.01</t>
   </si>
   <si>
+    <t>Esr2-IRES2-Cre;Ai14-506384.04.02.01</t>
+  </si>
+  <si>
     <t>Esr2-IRES2-Cre;Ai14-506384.04.02.03</t>
   </si>
   <si>
+    <t>Esr2-IRES2-Cre;Ai14-506384.04.02.04</t>
+  </si>
+  <si>
     <t>Esr2-IRES2-Cre;Ai14-506384.04.02.02</t>
   </si>
   <si>
-    <t>Esr2-IRES2-Cre;Ai14-506384.04.02.01</t>
-  </si>
-  <si>
-    <t>Esr2-IRES2-Cre;Ai14-506384.04.02.04</t>
-  </si>
-  <si>
     <t>Esr2-IRES2-Cre;Ai14-506384.03.01.01</t>
   </si>
   <si>
@@ -684,15 +685,15 @@
     <t>Penk-IRES2-Cre-neo;Slc17a6-IRES2-FlpO-505767-Ai65.03.01.01</t>
   </si>
   <si>
+    <t>Penk-IRES2-Cre-neo;Slc17a6-IRES2-FlpO-505767-Ai65.03.02.01</t>
+  </si>
+  <si>
+    <t>Penk-IRES2-Cre-neo;Slc17a6-IRES2-FlpO-505767-Ai65.03.02.02</t>
+  </si>
+  <si>
     <t>Penk-IRES2-Cre-neo;Slc17a6-IRES2-FlpO-505767-Ai65.03.02.03</t>
   </si>
   <si>
-    <t>Penk-IRES2-Cre-neo;Slc17a6-IRES2-FlpO-505767-Ai65.03.02.02</t>
-  </si>
-  <si>
-    <t>Penk-IRES2-Cre-neo;Slc17a6-IRES2-FlpO-505767-Ai65.03.02.01</t>
-  </si>
-  <si>
     <t>Penk-IRES2-Cre-neo;Slc17a6-IRES2-FlpO-505767-Ai65.02.02.01</t>
   </si>
   <si>
@@ -720,33 +721,33 @@
     <t>Slc17a7-IRES2-Cre;Ai14-506270.10.06.03</t>
   </si>
   <si>
+    <t>Slc17a7-IRES2-Cre;Ai14-506270.10.06.02</t>
+  </si>
+  <si>
     <t>Slc17a7-IRES2-Cre;Ai14-506270.10.06.01</t>
   </si>
   <si>
-    <t>Slc17a7-IRES2-Cre;Ai14-506270.10.06.02</t>
-  </si>
-  <si>
     <t>Slc17a7-IRES2-Cre;Ai14-506270.06.06.02</t>
   </si>
   <si>
     <t>Slc17a7-IRES2-Cre;Ai14-506270.06.06.01</t>
   </si>
   <si>
+    <t>Esr2-IRES2-Cre;Ai14-506385.04.02.02</t>
+  </si>
+  <si>
+    <t>Esr2-IRES2-Cre;Ai14-506385.04.02.01</t>
+  </si>
+  <si>
     <t>Esr2-IRES2-Cre;Ai14-506385.04.02.03</t>
   </si>
   <si>
-    <t>Esr2-IRES2-Cre;Ai14-506385.04.02.01</t>
-  </si>
-  <si>
-    <t>Esr2-IRES2-Cre;Ai14-506385.04.02.02</t>
+    <t>Esr2-IRES2-Cre;Ai14-506385.05.02.03</t>
   </si>
   <si>
     <t>Esr2-IRES2-Cre;Ai14-506385.05.02.02</t>
   </si>
   <si>
-    <t>Esr2-IRES2-Cre;Ai14-506385.05.02.03</t>
-  </si>
-  <si>
     <t>Esr2-IRES2-Cre;Ai14-506385.05.02.01</t>
   </si>
   <si>
@@ -768,57 +769,57 @@
     <t>Esr2-IRES2-Cre;Ai14-506385.03.02.01</t>
   </si>
   <si>
+    <t>Htr3a-Cre_NO152;Ai14-506089.04.01.01</t>
+  </si>
+  <si>
     <t>Htr3a-Cre_NO152;Ai14-506089.04.01.02</t>
   </si>
   <si>
-    <t>Htr3a-Cre_NO152;Ai14-506089.04.01.01</t>
-  </si>
-  <si>
     <t>Esr2-IRES2-Cre;Ai14-506389.03.01.02</t>
   </si>
   <si>
+    <t>Esr2-IRES2-Cre;Ai14-506389.04.02.02</t>
+  </si>
+  <si>
     <t>Esr2-IRES2-Cre;Ai14-506389.04.02.03</t>
   </si>
   <si>
-    <t>Esr2-IRES2-Cre;Ai14-506389.04.02.02</t>
-  </si>
-  <si>
     <t>Esr2-IRES2-Cre;Ai14-506389.04.02.01</t>
   </si>
   <si>
     <t>Esr2-IRES2-Cre;Ai14-506389.03.02.01</t>
   </si>
   <si>
+    <t>Esr2-IRES2-Cre;Ai14-506388.04.02.02</t>
+  </si>
+  <si>
+    <t>Esr2-IRES2-Cre;Ai14-506388.04.02.03</t>
+  </si>
+  <si>
     <t>Esr2-IRES2-Cre;Ai14-506388.04.02.01</t>
   </si>
   <si>
-    <t>Esr2-IRES2-Cre;Ai14-506388.04.02.02</t>
-  </si>
-  <si>
-    <t>Esr2-IRES2-Cre;Ai14-506388.04.02.03</t>
+    <t>Esr2-IRES2-Cre;Ai14-506388.05.02.03</t>
+  </si>
+  <si>
+    <t>Esr2-IRES2-Cre;Ai14-506388.05.02.01</t>
   </si>
   <si>
     <t>Esr2-IRES2-Cre;Ai14-506388.05.02.02</t>
   </si>
   <si>
-    <t>Esr2-IRES2-Cre;Ai14-506388.05.02.01</t>
-  </si>
-  <si>
-    <t>Esr2-IRES2-Cre;Ai14-506388.05.02.03</t>
-  </si>
-  <si>
     <t>Htr3a-Cre_NO152;Ai14-506091.10.01.02</t>
   </si>
   <si>
     <t>Htr3a-Cre_NO152;Ai14-506091.09.02.03</t>
   </si>
   <si>
+    <t>Htr3a-Cre_NO152;Ai14-506091.09.02.01</t>
+  </si>
+  <si>
     <t>Htr3a-Cre_NO152;Ai14-506091.09.02.02</t>
   </si>
   <si>
-    <t>Htr3a-Cre_NO152;Ai14-506091.09.02.01</t>
-  </si>
-  <si>
     <t>Htr3a-Cre_NO152;Ai14-506091.08.02.01</t>
   </si>
   <si>
@@ -945,39 +946,39 @@
     <t>P8S4_200107_351_A01</t>
   </si>
   <si>
+    <t>PES4_200107_651_A01</t>
+  </si>
+  <si>
+    <t>PES4_200107_653_A01</t>
+  </si>
+  <si>
     <t>PES4_200107_652_A01</t>
   </si>
   <si>
-    <t>PES4_200107_653_A01</t>
-  </si>
-  <si>
-    <t>PES4_200107_651_A01</t>
-  </si>
-  <si>
     <t>PAS4_200107_451_A01</t>
   </si>
   <si>
     <t>P8S4_200107_352_A01</t>
   </si>
   <si>
+    <t>P8S4_200107_355_A01</t>
+  </si>
+  <si>
+    <t>P8S4_200107_356_A01</t>
+  </si>
+  <si>
+    <t>P8S4_200107_354_A01</t>
+  </si>
+  <si>
     <t>P8S4_200107_353_A01</t>
   </si>
   <si>
-    <t>P8S4_200107_356_A01</t>
-  </si>
-  <si>
-    <t>P8S4_200107_355_A01</t>
-  </si>
-  <si>
-    <t>P8S4_200107_354_A01</t>
+    <t>PFS4_200107_702_A01</t>
   </si>
   <si>
     <t>PFS4_200107_701_A01</t>
   </si>
   <si>
-    <t>PFS4_200107_702_A01</t>
-  </si>
-  <si>
     <t>PES4_200107_654_A01</t>
   </si>
   <si>
@@ -990,12 +991,12 @@
     <t>PAS4_200107_452_A01</t>
   </si>
   <si>
+    <t>PES4_200107_656_A01</t>
+  </si>
+  <si>
     <t>PES4_200107_655_A01</t>
   </si>
   <si>
-    <t>PES4_200107_656_A01</t>
-  </si>
-  <si>
     <t>PES4_200107_657_A01</t>
   </si>
   <si>
@@ -1005,48 +1006,48 @@
     <t>PFS4_200109_701_A01</t>
   </si>
   <si>
+    <t>P8S4_200109_351_A01</t>
+  </si>
+  <si>
     <t>P8S4_200109_352_A01</t>
   </si>
   <si>
-    <t>P8S4_200109_351_A01</t>
-  </si>
-  <si>
     <t>PFS4_200109_702_A01</t>
   </si>
   <si>
+    <t>P8S4_200109_353_A01</t>
+  </si>
+  <si>
     <t>P8S4_200109_354_A01</t>
   </si>
   <si>
-    <t>P8S4_200109_353_A01</t>
-  </si>
-  <si>
     <t>PES4_200109_651_A01</t>
   </si>
   <si>
+    <t>P1S4_200109_001_A01</t>
+  </si>
+  <si>
     <t>P1S4_200109_002_A01</t>
   </si>
   <si>
-    <t>P1S4_200109_001_A01</t>
-  </si>
-  <si>
     <t>PES4_200109_652_A01</t>
   </si>
   <si>
+    <t>P8S4_200109_355_A01</t>
+  </si>
+  <si>
     <t>P8S4_200109_356_A01</t>
   </si>
   <si>
-    <t>P8S4_200109_355_A01</t>
-  </si>
-  <si>
     <t>PES4_200109_653_A01</t>
   </si>
   <si>
+    <t>P1S4_200110_001_A01</t>
+  </si>
+  <si>
     <t>P1S4_200110_002_A01</t>
   </si>
   <si>
-    <t>P1S4_200110_001_A01</t>
-  </si>
-  <si>
     <t>P1S4_200110_003_A01</t>
   </si>
   <si>
@@ -1056,12 +1057,12 @@
     <t>PES4_200110_652_A01</t>
   </si>
   <si>
+    <t>P8S4_200110_353_A01</t>
+  </si>
+  <si>
     <t>P8S4_200110_352_A01</t>
   </si>
   <si>
-    <t>P8S4_200110_353_A01</t>
-  </si>
-  <si>
     <t>P8S4_200110_351_A01</t>
   </si>
   <si>
@@ -1074,27 +1075,27 @@
     <t>PES4_200110_654_A01</t>
   </si>
   <si>
+    <t>PAS4_200110_452_A01</t>
+  </si>
+  <si>
+    <t>PAS4_200110_453_A01</t>
+  </si>
+  <si>
+    <t>PAS4_200110_454_A01</t>
+  </si>
+  <si>
     <t>PAS4_200110_451_A01</t>
   </si>
   <si>
-    <t>PAS4_200110_454_A01</t>
-  </si>
-  <si>
-    <t>PAS4_200110_453_A01</t>
-  </si>
-  <si>
-    <t>PAS4_200110_452_A01</t>
+    <t>PFS4_200110_702_A01</t>
+  </si>
+  <si>
+    <t>PFS4_200110_703_A01</t>
   </si>
   <si>
     <t>PFS4_200110_701_A01</t>
   </si>
   <si>
-    <t>PFS4_200110_703_A01</t>
-  </si>
-  <si>
-    <t>PFS4_200110_702_A01</t>
-  </si>
-  <si>
     <t>P8S4_200110_354_A01</t>
   </si>
   <si>
@@ -1116,12 +1117,12 @@
     <t>PAS4_200110_456_A01</t>
   </si>
   <si>
+    <t>PFS4_200113_702_A01</t>
+  </si>
+  <si>
     <t>PFS4_200113_701_A01</t>
   </si>
   <si>
-    <t>PFS4_200113_702_A01</t>
-  </si>
-  <si>
     <t>P8S4_200113_351_A01</t>
   </si>
   <si>
@@ -1131,33 +1132,33 @@
     <t>PES4_200113_651_A01</t>
   </si>
   <si>
+    <t>PAS4_200113_452_A01</t>
+  </si>
+  <si>
     <t>PAS4_200113_451_A01</t>
   </si>
   <si>
-    <t>PAS4_200113_452_A01</t>
-  </si>
-  <si>
     <t>P8S4_200113_353_A01</t>
   </si>
   <si>
+    <t>PES4_200113_653_A01</t>
+  </si>
+  <si>
     <t>PES4_200113_652_A01</t>
   </si>
   <si>
-    <t>PES4_200113_653_A01</t>
-  </si>
-  <si>
     <t>PFS4_200113_703_A01</t>
   </si>
   <si>
+    <t>P8S4_200113_354_A01</t>
+  </si>
+  <si>
+    <t>P8S4_200113_356_A01</t>
+  </si>
+  <si>
     <t>P8S4_200113_355_A01</t>
   </si>
   <si>
-    <t>P8S4_200113_356_A01</t>
-  </si>
-  <si>
-    <t>P8S4_200113_354_A01</t>
-  </si>
-  <si>
     <t>PFS4_200113_704_A01</t>
   </si>
   <si>
@@ -1173,54 +1174,54 @@
     <t>PES4_200113_656_A01</t>
   </si>
   <si>
+    <t>P8S4_200113_357_A01</t>
+  </si>
+  <si>
     <t>P8S4_200113_358_A01</t>
   </si>
   <si>
-    <t>P8S4_200113_357_A01</t>
+    <t>PAS4_200114_451_A01</t>
   </si>
   <si>
     <t>PAS4_200114_452_A01</t>
   </si>
   <si>
-    <t>PAS4_200114_451_A01</t>
-  </si>
-  <si>
     <t>PAS4_200114_453_A01</t>
   </si>
   <si>
     <t>PFS4_200114_701_A01</t>
   </si>
   <si>
+    <t>PES4_200114_652_A01</t>
+  </si>
+  <si>
     <t>PES4_200114_651_A01</t>
   </si>
   <si>
-    <t>PES4_200114_652_A01</t>
-  </si>
-  <si>
     <t>P8S4_200114_352_A01</t>
   </si>
   <si>
+    <t>P8S4_200114_353_A01</t>
+  </si>
+  <si>
     <t>P8S4_200114_351_A01</t>
   </si>
   <si>
-    <t>P8S4_200114_353_A01</t>
-  </si>
-  <si>
     <t>PES4_200114_653_A01</t>
   </si>
   <si>
+    <t>PAS4_200114_454_A01</t>
+  </si>
+  <si>
     <t>PAS4_200114_456_A01</t>
   </si>
   <si>
+    <t>PAS4_200114_457_A01</t>
+  </si>
+  <si>
     <t>PAS4_200114_455_A01</t>
   </si>
   <si>
-    <t>PAS4_200114_454_A01</t>
-  </si>
-  <si>
-    <t>PAS4_200114_457_A01</t>
-  </si>
-  <si>
     <t>PFS4_200114_702_A01</t>
   </si>
   <si>
@@ -1230,15 +1231,15 @@
     <t>PFS4_200114_703_A01</t>
   </si>
   <si>
+    <t>P8S4_200114_354_A01</t>
+  </si>
+  <si>
+    <t>P8S4_200114_355_A01</t>
+  </si>
+  <si>
     <t>P8S4_200114_356_A01</t>
   </si>
   <si>
-    <t>P8S4_200114_355_A01</t>
-  </si>
-  <si>
-    <t>P8S4_200114_354_A01</t>
-  </si>
-  <si>
     <t>PES4_200114_655_A01</t>
   </si>
   <si>
@@ -1266,33 +1267,33 @@
     <t>PAS4_200116_453_A01</t>
   </si>
   <si>
+    <t>PAS4_200116_452_A01</t>
+  </si>
+  <si>
     <t>PAS4_200116_451_A01</t>
   </si>
   <si>
-    <t>PAS4_200116_452_A01</t>
-  </si>
-  <si>
     <t>PES4_200116_652_A01</t>
   </si>
   <si>
     <t>PES4_200116_651_A01</t>
   </si>
   <si>
+    <t>P8S4_200116_355_A01</t>
+  </si>
+  <si>
+    <t>P8S4_200116_354_A01</t>
+  </si>
+  <si>
     <t>P8S4_200116_356_A01</t>
   </si>
   <si>
-    <t>P8S4_200116_354_A01</t>
-  </si>
-  <si>
-    <t>P8S4_200116_355_A01</t>
+    <t>PAS4_200116_456_A01</t>
   </si>
   <si>
     <t>PAS4_200116_455_A01</t>
   </si>
   <si>
-    <t>PAS4_200116_456_A01</t>
-  </si>
-  <si>
     <t>PAS4_200116_454_A01</t>
   </si>
   <si>
@@ -1314,57 +1315,57 @@
     <t>PES4_200116_654_A01</t>
   </si>
   <si>
+    <t>PFS4_200116_704_A01</t>
+  </si>
+  <si>
     <t>PFS4_200116_705_A01</t>
   </si>
   <si>
-    <t>PFS4_200116_704_A01</t>
-  </si>
-  <si>
     <t>PFS4_200117_701_A01</t>
   </si>
   <si>
+    <t>PAS4_200117_452_A01</t>
+  </si>
+  <si>
     <t>PAS4_200117_453_A01</t>
   </si>
   <si>
-    <t>PAS4_200117_452_A01</t>
-  </si>
-  <si>
     <t>PAS4_200117_451_A01</t>
   </si>
   <si>
     <t>P8S4_200117_351_A01</t>
   </si>
   <si>
+    <t>P8S4_200117_353_A01</t>
+  </si>
+  <si>
+    <t>P8S4_200117_354_A01</t>
+  </si>
+  <si>
     <t>P8S4_200117_352_A01</t>
   </si>
   <si>
-    <t>P8S4_200117_353_A01</t>
-  </si>
-  <si>
-    <t>P8S4_200117_354_A01</t>
+    <t>PAS4_200117_456_A01</t>
+  </si>
+  <si>
+    <t>PAS4_200117_454_A01</t>
   </si>
   <si>
     <t>PAS4_200117_455_A01</t>
   </si>
   <si>
-    <t>PAS4_200117_454_A01</t>
-  </si>
-  <si>
-    <t>PAS4_200117_456_A01</t>
-  </si>
-  <si>
     <t>PFS4_200117_702_A01</t>
   </si>
   <si>
     <t>P8S4_200117_357_A01</t>
   </si>
   <si>
+    <t>P8S4_200117_355_A01</t>
+  </si>
+  <si>
     <t>P8S4_200117_356_A01</t>
   </si>
   <si>
-    <t>P8S4_200117_355_A01</t>
-  </si>
-  <si>
     <t>PAS4_200117_457_A01</t>
   </si>
   <si>
@@ -1449,12 +1450,12 @@
     <t>Sst Hpse Cbln4</t>
   </si>
   <si>
+    <t>n11</t>
+  </si>
+  <si>
     <t>n86</t>
   </si>
   <si>
-    <t>n11</t>
-  </si>
-  <si>
     <t>L6 IT VISp Col18a1</t>
   </si>
   <si>
@@ -1467,12 +1468,12 @@
     <t>L5 IT VISp Col27a1</t>
   </si>
   <si>
+    <t>Sst Rxfp1 Prdm8</t>
+  </si>
+  <si>
     <t>L5 IT VISp Batf3</t>
   </si>
   <si>
-    <t>Sst Rxfp1 Prdm8</t>
-  </si>
-  <si>
     <t>Vip Rspo4 Rxfp1 Chat</t>
   </si>
   <si>
@@ -1482,10 +1483,10 @@
     <t>Sncg Vip Itih5</t>
   </si>
   <si>
+    <t>Lamp5 Lsp1</t>
+  </si>
+  <si>
     <t>n63</t>
-  </si>
-  <si>
-    <t>Lamp5 Lsp1</t>
   </si>
   <si>
     <t>L6 IT VISp Car3</t>
@@ -2971,7 +2972,7 @@
         <v>126</v>
       </c>
       <c r="E15">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F15" t="s">
         <v>272</v>
@@ -2991,29 +2992,8 @@
       <c r="K15" t="s">
         <v>308</v>
       </c>
-      <c r="L15">
-        <v>-69.40328025817871</v>
-      </c>
-      <c r="M15">
-        <v>63.906230032444</v>
-      </c>
-      <c r="N15">
-        <v>0.1683371961116791</v>
-      </c>
-      <c r="O15">
-        <v>17.45877193666746</v>
-      </c>
-      <c r="P15">
-        <v>3.42102386288433</v>
-      </c>
-      <c r="Q15">
-        <v>0.05637999999999999</v>
-      </c>
-      <c r="R15">
-        <v>0.07999999999999995</v>
-      </c>
       <c r="S15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="T15" t="s">
         <v>507</v>
@@ -3022,7 +3002,7 @@
         <v>508</v>
       </c>
       <c r="V15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W15" t="s">
         <v>523</v>
@@ -3113,7 +3093,7 @@
         <v>128</v>
       </c>
       <c r="E17">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F17" t="s">
         <v>272</v>
@@ -3133,8 +3113,29 @@
       <c r="K17" t="s">
         <v>310</v>
       </c>
+      <c r="L17">
+        <v>-69.40328025817871</v>
+      </c>
+      <c r="M17">
+        <v>63.906230032444</v>
+      </c>
+      <c r="N17">
+        <v>0.1683371961116791</v>
+      </c>
+      <c r="O17">
+        <v>17.45877193666746</v>
+      </c>
+      <c r="P17">
+        <v>3.42102386288433</v>
+      </c>
+      <c r="Q17">
+        <v>0.05637999999999999</v>
+      </c>
+      <c r="R17">
+        <v>0.07999999999999995</v>
+      </c>
       <c r="S17" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="T17" t="s">
         <v>507</v>
@@ -3143,7 +3144,7 @@
         <v>508</v>
       </c>
       <c r="V17" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="W17" t="s">
         <v>523</v>
@@ -3305,7 +3306,7 @@
         <v>131</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="F20" t="s">
         <v>272</v>
@@ -3326,28 +3327,28 @@
         <v>313</v>
       </c>
       <c r="L20">
-        <v>-64.20649303089489</v>
+        <v>-62.21947892506918</v>
       </c>
       <c r="M20">
-        <v>42.33172535896301</v>
+        <v>62.34371289610863</v>
       </c>
       <c r="N20">
-        <v>0.08401427417993547</v>
+        <v>0.1298631429672241</v>
       </c>
       <c r="O20">
-        <v>7.476996633897167</v>
+        <v>16.74166543576459</v>
       </c>
       <c r="P20">
-        <v>3.245649297918578</v>
+        <v>3.490307126826965</v>
       </c>
       <c r="Q20">
-        <v>0.03925999999999996</v>
+        <v>0.04762</v>
       </c>
       <c r="R20">
-        <v>0.2000000000000004</v>
+        <v>0.1042553191489362</v>
       </c>
       <c r="S20" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="T20" t="s">
         <v>507</v>
@@ -3468,28 +3469,28 @@
         <v>315</v>
       </c>
       <c r="L22">
-        <v>-62.21947892506918</v>
+        <v>-73.84854253133138</v>
       </c>
       <c r="M22">
-        <v>62.34371289610863</v>
+        <v>82.71873742341995</v>
       </c>
       <c r="N22">
-        <v>0.1298631429672241</v>
+        <v>0.1530129164457321</v>
       </c>
       <c r="O22">
-        <v>16.74166543576459</v>
+        <v>13.88289603231897</v>
       </c>
       <c r="P22">
-        <v>3.490307126826965</v>
+        <v>3.464848972909014</v>
       </c>
       <c r="Q22">
-        <v>0.04762</v>
+        <v>0.04457999999999995</v>
       </c>
       <c r="R22">
-        <v>0.1042553191489362</v>
+        <v>0.0557692307692308</v>
       </c>
       <c r="S22" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="T22" t="s">
         <v>507</v>
@@ -3518,7 +3519,7 @@
         <v>134</v>
       </c>
       <c r="E23">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
         <v>272</v>
@@ -3539,25 +3540,25 @@
         <v>316</v>
       </c>
       <c r="L23">
-        <v>-73.84854253133138</v>
+        <v>-64.20649303089489</v>
       </c>
       <c r="M23">
-        <v>82.71873742341995</v>
+        <v>42.33172535896301</v>
       </c>
       <c r="N23">
-        <v>0.1530129164457321</v>
+        <v>0.08401427417993547</v>
       </c>
       <c r="O23">
-        <v>13.88289603231897</v>
+        <v>7.476996633897167</v>
       </c>
       <c r="P23">
-        <v>3.464848972909014</v>
+        <v>3.245649297918578</v>
       </c>
       <c r="Q23">
-        <v>0.04457999999999995</v>
+        <v>0.03925999999999996</v>
       </c>
       <c r="R23">
-        <v>0.0557692307692308</v>
+        <v>0.2000000000000004</v>
       </c>
       <c r="S23" t="s">
         <v>465</v>
@@ -3589,7 +3590,7 @@
         <v>135</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="F24" t="s">
         <v>272</v>
@@ -3609,8 +3610,29 @@
       <c r="K24" t="s">
         <v>317</v>
       </c>
+      <c r="L24">
+        <v>-65.09322357177734</v>
+      </c>
+      <c r="M24">
+        <v>62.38974258303642</v>
+      </c>
+      <c r="N24">
+        <v>0.1284336894750595</v>
+      </c>
+      <c r="O24">
+        <v>14.65924504299855</v>
+      </c>
+      <c r="P24">
+        <v>2.440515605526204</v>
+      </c>
+      <c r="Q24">
+        <v>0.04575999999999991</v>
+      </c>
+      <c r="R24">
+        <v>0.04462365591397849</v>
+      </c>
       <c r="S24" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="T24" t="s">
         <v>507</v>
@@ -3639,7 +3661,7 @@
         <v>136</v>
       </c>
       <c r="E25">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
         <v>272</v>
@@ -3659,29 +3681,8 @@
       <c r="K25" t="s">
         <v>318</v>
       </c>
-      <c r="L25">
-        <v>-65.09322357177734</v>
-      </c>
-      <c r="M25">
-        <v>62.38974258303642</v>
-      </c>
-      <c r="N25">
-        <v>0.1284336894750595</v>
-      </c>
-      <c r="O25">
-        <v>14.65924504299855</v>
-      </c>
-      <c r="P25">
-        <v>2.440515605526204</v>
-      </c>
-      <c r="Q25">
-        <v>0.04575999999999991</v>
-      </c>
-      <c r="R25">
-        <v>0.04462365591397849</v>
-      </c>
       <c r="S25" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="T25" t="s">
         <v>507</v>
@@ -4006,7 +4007,7 @@
         <v>280</v>
       </c>
       <c r="I30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J30" t="s">
         <v>289</v>
@@ -4015,37 +4016,37 @@
         <v>323</v>
       </c>
       <c r="L30">
-        <v>-73.24457380506728</v>
+        <v>-74.58181762695312</v>
       </c>
       <c r="M30">
-        <v>122.5312426686287</v>
+        <v>73.56251031160355</v>
       </c>
       <c r="N30">
-        <v>0.1162634640932083</v>
+        <v>0.06505052745342255</v>
       </c>
       <c r="O30">
-        <v>23.2298134763295</v>
+        <v>6.215973447469993</v>
       </c>
       <c r="P30">
-        <v>4.149420820152303</v>
+        <v>1.155513636647112</v>
       </c>
       <c r="Q30">
-        <v>0.07189999999999996</v>
+        <v>0.01566000000000001</v>
       </c>
       <c r="R30">
-        <v>0.135</v>
+        <v>0.5253012048192769</v>
       </c>
       <c r="S30" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="T30" t="s">
         <v>507</v>
       </c>
       <c r="U30" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W30" t="s">
         <v>523</v>
@@ -4077,7 +4078,7 @@
         <v>280</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
         <v>289</v>
@@ -4086,37 +4087,37 @@
         <v>324</v>
       </c>
       <c r="L31">
-        <v>-74.58181762695312</v>
+        <v>-73.24457380506728</v>
       </c>
       <c r="M31">
-        <v>73.56251031160355</v>
+        <v>122.5312426686287</v>
       </c>
       <c r="N31">
-        <v>0.06505052745342255</v>
+        <v>0.1162634640932083</v>
       </c>
       <c r="O31">
-        <v>6.215973447469993</v>
+        <v>23.2298134763295</v>
       </c>
       <c r="P31">
-        <v>1.155513636647112</v>
+        <v>4.149420820152303</v>
       </c>
       <c r="Q31">
-        <v>0.01566000000000001</v>
+        <v>0.07189999999999996</v>
       </c>
       <c r="R31">
-        <v>0.5253012048192769</v>
+        <v>0.135</v>
       </c>
       <c r="S31" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="T31" t="s">
         <v>507</v>
       </c>
       <c r="U31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V31" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="W31" t="s">
         <v>523</v>
@@ -4328,7 +4329,7 @@
         <v>146</v>
       </c>
       <c r="E35">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F35" t="s">
         <v>272</v>
@@ -4349,37 +4350,37 @@
         <v>328</v>
       </c>
       <c r="L35">
-        <v>-66.67499542236328</v>
+        <v>-73.48819961547852</v>
       </c>
       <c r="M35">
-        <v>58.5625059902668</v>
+        <v>115.5000329017639</v>
       </c>
       <c r="N35">
-        <v>0.1770512312650681</v>
+        <v>0.05702433362603188</v>
       </c>
       <c r="O35">
-        <v>13.58776333327424</v>
+        <v>6.348978920730441</v>
       </c>
       <c r="P35">
-        <v>3.060930124750145</v>
+        <v>1.33294721186336</v>
       </c>
       <c r="Q35">
-        <v>0.04239999999999999</v>
+        <v>0.008959999999999968</v>
       </c>
       <c r="R35">
-        <v>0.1168224299065419</v>
+        <v>0.8429906542056069</v>
       </c>
       <c r="S35" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="T35" t="s">
         <v>507</v>
       </c>
       <c r="U35" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V35" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="W35" t="s">
         <v>524</v>
@@ -4399,7 +4400,7 @@
         <v>147</v>
       </c>
       <c r="E36">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F36" t="s">
         <v>272</v>
@@ -4420,37 +4421,37 @@
         <v>329</v>
       </c>
       <c r="L36">
-        <v>-73.48819961547852</v>
+        <v>-66.67499542236328</v>
       </c>
       <c r="M36">
-        <v>115.5000329017639</v>
+        <v>58.5625059902668</v>
       </c>
       <c r="N36">
-        <v>0.05702433362603188</v>
+        <v>0.1770512312650681</v>
       </c>
       <c r="O36">
-        <v>6.348978920730441</v>
+        <v>13.58776333327424</v>
       </c>
       <c r="P36">
-        <v>1.33294721186336</v>
+        <v>3.060930124750145</v>
       </c>
       <c r="Q36">
-        <v>0.008959999999999968</v>
+        <v>0.04239999999999999</v>
       </c>
       <c r="R36">
-        <v>0.8429906542056069</v>
+        <v>0.1168224299065419</v>
       </c>
       <c r="S36" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="T36" t="s">
         <v>507</v>
       </c>
       <c r="U36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W36" t="s">
         <v>524</v>
@@ -4541,7 +4542,7 @@
         <v>149</v>
       </c>
       <c r="E38">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="F38" t="s">
         <v>272</v>
@@ -4553,7 +4554,7 @@
         <v>280</v>
       </c>
       <c r="I38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J38" t="s">
         <v>290</v>
@@ -4562,28 +4563,28 @@
         <v>331</v>
       </c>
       <c r="L38">
-        <v>-60.43675374984741</v>
+        <v>-69.86540451049805</v>
       </c>
       <c r="M38">
-        <v>357.4999868869781</v>
+        <v>82.78121799230577</v>
       </c>
       <c r="N38">
-        <v>0.2461453378200531</v>
+        <v>0.2024276405572891</v>
       </c>
       <c r="O38">
-        <v>43.94390355031575</v>
+        <v>12.9959679229506</v>
       </c>
       <c r="P38">
-        <v>4.015997984215793</v>
+        <v>2.968988451809159</v>
       </c>
       <c r="Q38">
-        <v>0.03549999999999998</v>
+        <v>0.03605999999999998</v>
       </c>
       <c r="R38">
-        <v>0.3185483870967742</v>
+        <v>0.1850000000000002</v>
       </c>
       <c r="S38" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="T38" t="s">
         <v>507</v>
@@ -4592,7 +4593,7 @@
         <v>508</v>
       </c>
       <c r="V38" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="W38" t="s">
         <v>524</v>
@@ -4612,7 +4613,7 @@
         <v>150</v>
       </c>
       <c r="E39">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="F39" t="s">
         <v>272</v>
@@ -4624,7 +4625,7 @@
         <v>280</v>
       </c>
       <c r="I39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J39" t="s">
         <v>290</v>
@@ -4633,28 +4634,28 @@
         <v>332</v>
       </c>
       <c r="L39">
-        <v>-69.86540451049805</v>
+        <v>-60.43675374984741</v>
       </c>
       <c r="M39">
-        <v>82.78121799230577</v>
+        <v>357.4999868869781</v>
       </c>
       <c r="N39">
-        <v>0.2024276405572891</v>
+        <v>0.2461453378200531</v>
       </c>
       <c r="O39">
-        <v>12.9959679229506</v>
+        <v>43.94390355031575</v>
       </c>
       <c r="P39">
-        <v>2.968988451809159</v>
+        <v>4.015997984215793</v>
       </c>
       <c r="Q39">
-        <v>0.03605999999999998</v>
+        <v>0.03549999999999998</v>
       </c>
       <c r="R39">
-        <v>0.1850000000000002</v>
+        <v>0.3185483870967742</v>
       </c>
       <c r="S39" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="T39" t="s">
         <v>507</v>
@@ -4663,7 +4664,7 @@
         <v>508</v>
       </c>
       <c r="V39" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="W39" t="s">
         <v>524</v>
@@ -4754,7 +4755,7 @@
         <v>152</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>272</v>
@@ -4766,7 +4767,7 @@
         <v>280</v>
       </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J41" t="s">
         <v>290</v>
@@ -4774,8 +4775,29 @@
       <c r="K41" t="s">
         <v>334</v>
       </c>
+      <c r="L41">
+        <v>-80.72271619524274</v>
+      </c>
+      <c r="M41">
+        <v>89.21876549720764</v>
+      </c>
+      <c r="N41">
+        <v>0.03722857683897018</v>
+      </c>
+      <c r="O41">
+        <v>13.076140406821</v>
+      </c>
+      <c r="P41">
+        <v>4.415684344016972</v>
+      </c>
+      <c r="Q41">
+        <v>0.07575999999999994</v>
+      </c>
+      <c r="R41">
+        <v>0.115</v>
+      </c>
       <c r="S41" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="T41" t="s">
         <v>507</v>
@@ -4804,7 +4826,7 @@
         <v>153</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
         <v>272</v>
@@ -4816,7 +4838,7 @@
         <v>280</v>
       </c>
       <c r="I42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J42" t="s">
         <v>290</v>
@@ -4824,29 +4846,8 @@
       <c r="K42" t="s">
         <v>335</v>
       </c>
-      <c r="L42">
-        <v>-80.72271619524274</v>
-      </c>
-      <c r="M42">
-        <v>89.21876549720764</v>
-      </c>
-      <c r="N42">
-        <v>0.03722857683897018</v>
-      </c>
-      <c r="O42">
-        <v>13.076140406821</v>
-      </c>
-      <c r="P42">
-        <v>4.415684344016972</v>
-      </c>
-      <c r="Q42">
-        <v>0.07575999999999994</v>
-      </c>
-      <c r="R42">
-        <v>0.115</v>
-      </c>
       <c r="S42" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="T42" t="s">
         <v>507</v>
@@ -4946,7 +4947,7 @@
         <v>155</v>
       </c>
       <c r="E44">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F44" t="s">
         <v>272</v>
@@ -4958,7 +4959,7 @@
         <v>280</v>
       </c>
       <c r="I44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J44" t="s">
         <v>290</v>
@@ -4967,28 +4968,28 @@
         <v>337</v>
       </c>
       <c r="L44">
-        <v>-61.06369871251724</v>
+        <v>-60.17255748401988</v>
       </c>
       <c r="M44">
-        <v>181.5624684095383</v>
+        <v>98.59380871057509</v>
       </c>
       <c r="N44">
-        <v>0.07781945914030075</v>
+        <v>0.1359332054853439</v>
       </c>
       <c r="O44">
-        <v>26.8350017212737</v>
+        <v>12.54512654605853</v>
       </c>
       <c r="P44">
-        <v>2.48676037869948</v>
+        <v>3.400084198667335</v>
       </c>
       <c r="Q44">
-        <v>0.04315999999999998</v>
+        <v>0.03347999999999995</v>
       </c>
       <c r="R44">
-        <v>0.1685714285714287</v>
+        <v>0.2750000000000002</v>
       </c>
       <c r="S44" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="T44" t="s">
         <v>507</v>
@@ -4997,7 +4998,7 @@
         <v>508</v>
       </c>
       <c r="V44" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W44" t="s">
         <v>524</v>
@@ -5017,7 +5018,7 @@
         <v>156</v>
       </c>
       <c r="E45">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F45" t="s">
         <v>272</v>
@@ -5029,7 +5030,7 @@
         <v>280</v>
       </c>
       <c r="I45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J45" t="s">
         <v>290</v>
@@ -5038,28 +5039,28 @@
         <v>338</v>
       </c>
       <c r="L45">
-        <v>-60.17255748401988</v>
+        <v>-61.06369871251724</v>
       </c>
       <c r="M45">
-        <v>98.59380871057509</v>
+        <v>181.5624684095383</v>
       </c>
       <c r="N45">
-        <v>0.1359332054853439</v>
+        <v>0.07781945914030075</v>
       </c>
       <c r="O45">
-        <v>12.54512654605853</v>
+        <v>26.8350017212737</v>
       </c>
       <c r="P45">
-        <v>3.400084198667335</v>
+        <v>2.48676037869948</v>
       </c>
       <c r="Q45">
-        <v>0.03347999999999995</v>
+        <v>0.04315999999999998</v>
       </c>
       <c r="R45">
-        <v>0.2750000000000002</v>
+        <v>0.1685714285714287</v>
       </c>
       <c r="S45" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="T45" t="s">
         <v>507</v>
@@ -5068,7 +5069,7 @@
         <v>508</v>
       </c>
       <c r="V45" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="W45" t="s">
         <v>524</v>
@@ -5159,7 +5160,7 @@
         <v>158</v>
       </c>
       <c r="E47">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="F47" t="s">
         <v>272</v>
@@ -5171,37 +5172,37 @@
         <v>280</v>
       </c>
       <c r="I47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J47" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K47" t="s">
         <v>340</v>
       </c>
       <c r="L47">
-        <v>-68.57379267765926</v>
+        <v>-69.17314453125</v>
       </c>
       <c r="M47">
-        <v>200.3794312477112</v>
+        <v>121.8750029802322</v>
       </c>
       <c r="N47">
-        <v>0.01415196433663368</v>
+        <v>0.04198147356510162</v>
       </c>
       <c r="O47">
-        <v>29.98400628297209</v>
+        <v>16.24668379355</v>
       </c>
       <c r="P47">
-        <v>5.519751773862391</v>
+        <v>3.291807365708308</v>
       </c>
       <c r="Q47">
-        <v>0.06829999999999993</v>
+        <v>0.08331999999999995</v>
       </c>
       <c r="R47">
-        <v>0.1460526315789475</v>
+        <v>0.1614649681528663</v>
       </c>
       <c r="S47" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="T47" t="s">
         <v>507</v>
@@ -5210,7 +5211,7 @@
         <v>508</v>
       </c>
       <c r="V47" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="W47" t="s">
         <v>526</v>
@@ -5230,7 +5231,7 @@
         <v>159</v>
       </c>
       <c r="E48">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
         <v>272</v>
@@ -5242,37 +5243,37 @@
         <v>280</v>
       </c>
       <c r="I48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J48" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K48" t="s">
         <v>341</v>
       </c>
       <c r="L48">
-        <v>-69.17314453125</v>
+        <v>-68.57379267765926</v>
       </c>
       <c r="M48">
-        <v>121.8750029802322</v>
+        <v>200.3794312477112</v>
       </c>
       <c r="N48">
-        <v>0.04198147356510162</v>
+        <v>0.01415196433663368</v>
       </c>
       <c r="O48">
-        <v>16.24668379355</v>
+        <v>29.98400628297209</v>
       </c>
       <c r="P48">
-        <v>3.291807365708308</v>
+        <v>5.519751773862391</v>
       </c>
       <c r="Q48">
-        <v>0.08331999999999995</v>
+        <v>0.06829999999999993</v>
       </c>
       <c r="R48">
-        <v>0.1614649681528663</v>
+        <v>0.1460526315789475</v>
       </c>
       <c r="S48" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="T48" t="s">
         <v>507</v>
@@ -5281,7 +5282,7 @@
         <v>508</v>
       </c>
       <c r="V48" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="W48" t="s">
         <v>526</v>
@@ -5514,7 +5515,7 @@
         <v>163</v>
       </c>
       <c r="E52">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s">
         <v>272</v>
@@ -5529,34 +5530,34 @@
         <v>284</v>
       </c>
       <c r="J52" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K52" t="s">
         <v>345</v>
       </c>
       <c r="L52">
-        <v>-68.60573023015803</v>
+        <v>-75.30872497558593</v>
       </c>
       <c r="M52">
-        <v>107.9999506473541</v>
+        <v>125.5311965942383</v>
       </c>
       <c r="N52">
-        <v>0.01382383424788714</v>
+        <v>0.0643904060125351</v>
       </c>
       <c r="O52">
-        <v>25.51806561340071</v>
+        <v>24.96257516143061</v>
       </c>
       <c r="P52">
-        <v>4.786922978278009</v>
+        <v>3.958761888582859</v>
       </c>
       <c r="Q52">
-        <v>0.1036199999999999</v>
+        <v>0.08501999999999997</v>
       </c>
       <c r="R52">
-        <v>0.1200000000000001</v>
+        <v>0.1350000000000001</v>
       </c>
       <c r="S52" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="T52" t="s">
         <v>507</v>
@@ -5565,7 +5566,7 @@
         <v>508</v>
       </c>
       <c r="V52" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="W52" t="s">
         <v>524</v>
@@ -5585,7 +5586,7 @@
         <v>164</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="F53" t="s">
         <v>272</v>
@@ -5600,34 +5601,34 @@
         <v>284</v>
       </c>
       <c r="J53" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K53" t="s">
         <v>346</v>
       </c>
       <c r="L53">
-        <v>-75.30872497558593</v>
+        <v>-68.60573023015803</v>
       </c>
       <c r="M53">
-        <v>125.5311965942383</v>
+        <v>107.9999506473541</v>
       </c>
       <c r="N53">
-        <v>0.0643904060125351</v>
+        <v>0.01382383424788714</v>
       </c>
       <c r="O53">
-        <v>24.96257516143061</v>
+        <v>25.51806561340071</v>
       </c>
       <c r="P53">
-        <v>3.958761888582859</v>
+        <v>4.786922978278009</v>
       </c>
       <c r="Q53">
-        <v>0.08501999999999997</v>
+        <v>0.1036199999999999</v>
       </c>
       <c r="R53">
-        <v>0.1350000000000001</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="S53" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="T53" t="s">
         <v>507</v>
@@ -5636,7 +5637,7 @@
         <v>508</v>
       </c>
       <c r="V53" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="W53" t="s">
         <v>524</v>
@@ -5940,7 +5941,7 @@
         <v>169</v>
       </c>
       <c r="E58">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
         <v>272</v>
@@ -5952,7 +5953,7 @@
         <v>280</v>
       </c>
       <c r="I58" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J58" t="s">
         <v>290</v>
@@ -5961,28 +5962,28 @@
         <v>351</v>
       </c>
       <c r="L58">
-        <v>-64.59052085876465</v>
+        <v>-59.08920608520508</v>
       </c>
       <c r="M58">
-        <v>72.19954580068587</v>
+        <v>79.99657839536667</v>
       </c>
       <c r="N58">
-        <v>0.1098356917500496</v>
+        <v>0.2013196349143982</v>
       </c>
       <c r="O58">
-        <v>16.29784764965702</v>
+        <v>19.13502264940296</v>
       </c>
       <c r="P58">
-        <v>3.640093211067802</v>
+        <v>3.930554033928776</v>
       </c>
       <c r="Q58">
-        <v>0.04833999999999994</v>
+        <v>0.07519999999999992</v>
       </c>
       <c r="R58">
-        <v>0.1246987951807229</v>
+        <v>0.07000000000000013</v>
       </c>
       <c r="S58" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="T58" t="s">
         <v>507</v>
@@ -6011,7 +6012,7 @@
         <v>170</v>
       </c>
       <c r="E59">
-        <v>2.5</v>
+        <v>2000</v>
       </c>
       <c r="F59" t="s">
         <v>272</v>
@@ -6026,34 +6027,34 @@
         <v>283</v>
       </c>
       <c r="J59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K59" t="s">
         <v>352</v>
       </c>
       <c r="L59">
-        <v>-70.28225649320164</v>
+        <v>-65.84584045410156</v>
       </c>
       <c r="M59">
-        <v>99.3124023079872</v>
+        <v>300.1562654972076</v>
       </c>
       <c r="N59">
-        <v>0.05842895805835724</v>
+        <v>0.02006839029490948</v>
       </c>
       <c r="O59">
-        <v>6.074618423485317</v>
+        <v>24.02226112141639</v>
       </c>
       <c r="P59">
-        <v>1.258000087169142</v>
+        <v>2.824989958567775</v>
       </c>
       <c r="Q59">
-        <v>0.01249999999999996</v>
+        <v>0.03108</v>
       </c>
       <c r="R59">
-        <v>0.8369863013698634</v>
+        <v>0.3303684879288438</v>
       </c>
       <c r="S59" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="T59" t="s">
         <v>507</v>
@@ -6062,7 +6063,7 @@
         <v>509</v>
       </c>
       <c r="V59" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="W59" t="s">
         <v>525</v>
@@ -6082,7 +6083,7 @@
         <v>171</v>
       </c>
       <c r="E60">
-        <v>2000</v>
+        <v>2.5</v>
       </c>
       <c r="F60" t="s">
         <v>272</v>
@@ -6097,34 +6098,34 @@
         <v>283</v>
       </c>
       <c r="J60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K60" t="s">
         <v>353</v>
       </c>
       <c r="L60">
-        <v>-65.84584045410156</v>
+        <v>-70.28225649320164</v>
       </c>
       <c r="M60">
-        <v>300.1562654972076</v>
+        <v>99.3124023079872</v>
       </c>
       <c r="N60">
-        <v>0.02006839029490948</v>
+        <v>0.05842895805835724</v>
       </c>
       <c r="O60">
-        <v>24.02226112141639</v>
+        <v>6.074618423485317</v>
       </c>
       <c r="P60">
-        <v>2.824989958567775</v>
+        <v>1.258000087169142</v>
       </c>
       <c r="Q60">
-        <v>0.03108</v>
+        <v>0.01249999999999996</v>
       </c>
       <c r="R60">
-        <v>0.3303684879288438</v>
+        <v>0.8369863013698634</v>
       </c>
       <c r="S60" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="T60" t="s">
         <v>507</v>
@@ -6133,7 +6134,7 @@
         <v>509</v>
       </c>
       <c r="V60" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="W60" t="s">
         <v>525</v>
@@ -6153,7 +6154,7 @@
         <v>172</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="F61" t="s">
         <v>272</v>
@@ -6165,7 +6166,7 @@
         <v>280</v>
       </c>
       <c r="I61" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="J61" t="s">
         <v>290</v>
@@ -6174,28 +6175,28 @@
         <v>354</v>
       </c>
       <c r="L61">
-        <v>-59.08920608520508</v>
+        <v>-64.59052085876465</v>
       </c>
       <c r="M61">
-        <v>79.99657839536667</v>
+        <v>72.19954580068587</v>
       </c>
       <c r="N61">
-        <v>0.2013196349143982</v>
+        <v>0.1098356917500496</v>
       </c>
       <c r="O61">
-        <v>19.13502264940296</v>
+        <v>16.29784764965702</v>
       </c>
       <c r="P61">
-        <v>3.930554033928776</v>
+        <v>3.640093211067802</v>
       </c>
       <c r="Q61">
-        <v>0.07519999999999992</v>
+        <v>0.04833999999999994</v>
       </c>
       <c r="R61">
-        <v>0.07000000000000013</v>
+        <v>0.1246987951807229</v>
       </c>
       <c r="S61" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="T61" t="s">
         <v>507</v>
@@ -6224,7 +6225,7 @@
         <v>173</v>
       </c>
       <c r="E62">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F62" t="s">
         <v>272</v>
@@ -6236,7 +6237,7 @@
         <v>280</v>
       </c>
       <c r="I62" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J62" t="s">
         <v>290</v>
@@ -6244,8 +6245,29 @@
       <c r="K62" t="s">
         <v>355</v>
       </c>
+      <c r="L62">
+        <v>-71.36082331339519</v>
+      </c>
+      <c r="M62">
+        <v>112.5936880707741</v>
+      </c>
+      <c r="N62">
+        <v>0.14601930975914</v>
+      </c>
+      <c r="O62">
+        <v>15.5167310721922</v>
+      </c>
+      <c r="P62">
+        <v>3.271508682379974</v>
+      </c>
+      <c r="Q62">
+        <v>0.05940000000000002</v>
+      </c>
+      <c r="R62">
+        <v>0.197872340425532</v>
+      </c>
       <c r="S62" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T62" t="s">
         <v>507</v>
@@ -6345,7 +6367,7 @@
         <v>175</v>
       </c>
       <c r="E64">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F64" t="s">
         <v>272</v>
@@ -6357,7 +6379,7 @@
         <v>280</v>
       </c>
       <c r="I64" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J64" t="s">
         <v>290</v>
@@ -6365,29 +6387,8 @@
       <c r="K64" t="s">
         <v>357</v>
       </c>
-      <c r="L64">
-        <v>-71.36082331339519</v>
-      </c>
-      <c r="M64">
-        <v>112.5936880707741</v>
-      </c>
-      <c r="N64">
-        <v>0.14601930975914</v>
-      </c>
-      <c r="O64">
-        <v>15.5167310721922</v>
-      </c>
-      <c r="P64">
-        <v>3.271508682379974</v>
-      </c>
-      <c r="Q64">
-        <v>0.05940000000000002</v>
-      </c>
-      <c r="R64">
-        <v>0.197872340425532</v>
-      </c>
       <c r="S64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T64" t="s">
         <v>507</v>
@@ -6925,37 +6926,16 @@
         <v>280</v>
       </c>
       <c r="I72" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J72" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K72" t="s">
         <v>365</v>
       </c>
-      <c r="L72">
-        <v>-60.67748988758434</v>
-      </c>
-      <c r="M72">
-        <v>152.8492271900177</v>
-      </c>
-      <c r="N72">
-        <v>0.04069102928042412</v>
-      </c>
-      <c r="O72">
-        <v>29.78623390618569</v>
-      </c>
-      <c r="P72">
-        <v>4.62526029546413</v>
-      </c>
-      <c r="Q72">
-        <v>0.08972000000000002</v>
-      </c>
-      <c r="R72">
-        <v>0.15</v>
-      </c>
       <c r="S72" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="T72" t="s">
         <v>507</v>
@@ -6964,7 +6944,7 @@
         <v>508</v>
       </c>
       <c r="V72" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="W72" t="s">
         <v>522</v>
@@ -6996,16 +6976,37 @@
         <v>280</v>
       </c>
       <c r="I73" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J73" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K73" t="s">
         <v>366</v>
       </c>
+      <c r="L73">
+        <v>-60.67748988758434</v>
+      </c>
+      <c r="M73">
+        <v>152.8492271900177</v>
+      </c>
+      <c r="N73">
+        <v>0.04069102928042412</v>
+      </c>
+      <c r="O73">
+        <v>29.78623390618569</v>
+      </c>
+      <c r="P73">
+        <v>4.62526029546413</v>
+      </c>
+      <c r="Q73">
+        <v>0.08972000000000002</v>
+      </c>
+      <c r="R73">
+        <v>0.15</v>
+      </c>
       <c r="S73" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="T73" t="s">
         <v>507</v>
@@ -7014,7 +7015,7 @@
         <v>508</v>
       </c>
       <c r="V73" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="W73" t="s">
         <v>522</v>
@@ -7247,7 +7248,7 @@
         <v>188</v>
       </c>
       <c r="E77">
-        <v>6.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F77" t="s">
         <v>272</v>
@@ -7268,28 +7269,28 @@
         <v>370</v>
       </c>
       <c r="L77">
-        <v>-79.04284785344051</v>
+        <v>-77.15321578979494</v>
       </c>
       <c r="M77">
-        <v>111.0937893390656</v>
+        <v>95.18756717443466</v>
       </c>
       <c r="N77">
-        <v>0.04167670011520386</v>
+        <v>0.2049178034067154</v>
       </c>
       <c r="O77">
-        <v>16.01273970209763</v>
+        <v>16.12745443276978</v>
       </c>
       <c r="P77">
-        <v>4.163554319995317</v>
+        <v>3.437512960798568</v>
       </c>
       <c r="Q77">
-        <v>0.06087999999999993</v>
+        <v>0.05049999999999999</v>
       </c>
       <c r="R77">
-        <v>0.1937500000000002</v>
+        <v>0.12</v>
       </c>
       <c r="S77" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="T77" t="s">
         <v>507</v>
@@ -7298,7 +7299,7 @@
         <v>508</v>
       </c>
       <c r="V77" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W77" t="s">
         <v>525</v>
@@ -7318,7 +7319,7 @@
         <v>189</v>
       </c>
       <c r="E78">
-        <v>8.699999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="F78" t="s">
         <v>272</v>
@@ -7339,28 +7340,28 @@
         <v>371</v>
       </c>
       <c r="L78">
-        <v>-77.15321578979494</v>
+        <v>-79.04284785344051</v>
       </c>
       <c r="M78">
-        <v>95.18756717443466</v>
+        <v>111.0937893390656</v>
       </c>
       <c r="N78">
-        <v>0.2049178034067154</v>
+        <v>0.04167670011520386</v>
       </c>
       <c r="O78">
-        <v>16.12745443276978</v>
+        <v>16.01273970209763</v>
       </c>
       <c r="P78">
-        <v>3.437512960798568</v>
+        <v>4.163554319995317</v>
       </c>
       <c r="Q78">
-        <v>0.05049999999999999</v>
+        <v>0.06087999999999993</v>
       </c>
       <c r="R78">
-        <v>0.12</v>
+        <v>0.1937500000000002</v>
       </c>
       <c r="S78" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="T78" t="s">
         <v>507</v>
@@ -7369,7 +7370,7 @@
         <v>508</v>
       </c>
       <c r="V78" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="W78" t="s">
         <v>525</v>
@@ -7460,7 +7461,7 @@
         <v>191</v>
       </c>
       <c r="E80">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F80" t="s">
         <v>272</v>
@@ -7472,7 +7473,7 @@
         <v>280</v>
       </c>
       <c r="I80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J80" t="s">
         <v>289</v>
@@ -7481,28 +7482,28 @@
         <v>373</v>
       </c>
       <c r="L80">
-        <v>-76.79246317545572</v>
+        <v>-74.04762649536133</v>
       </c>
       <c r="M80">
-        <v>79.34372127056122</v>
+        <v>100.0624448060989</v>
       </c>
       <c r="N80">
-        <v>0.05242926999926567</v>
+        <v>0.05904806405305862</v>
       </c>
       <c r="O80">
-        <v>19.65443008871873</v>
+        <v>28.4638587979879</v>
       </c>
       <c r="P80">
-        <v>4.712491446507162</v>
+        <v>5.295690941751761</v>
       </c>
       <c r="Q80">
-        <v>0.07657999999999998</v>
+        <v>0.09697999999999997</v>
       </c>
       <c r="R80">
-        <v>0.05469002695417791</v>
+        <v>0.1</v>
       </c>
       <c r="S80" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="T80" t="s">
         <v>507</v>
@@ -7511,7 +7512,7 @@
         <v>508</v>
       </c>
       <c r="V80" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="W80" t="s">
         <v>523</v>
@@ -7531,7 +7532,7 @@
         <v>192</v>
       </c>
       <c r="E81">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F81" t="s">
         <v>272</v>
@@ -7543,7 +7544,7 @@
         <v>280</v>
       </c>
       <c r="I81" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J81" t="s">
         <v>289</v>
@@ -7552,28 +7553,28 @@
         <v>374</v>
       </c>
       <c r="L81">
-        <v>-74.04762649536133</v>
+        <v>-76.79246317545572</v>
       </c>
       <c r="M81">
-        <v>100.0624448060989</v>
+        <v>79.34372127056122</v>
       </c>
       <c r="N81">
-        <v>0.05904806405305862</v>
+        <v>0.05242926999926567</v>
       </c>
       <c r="O81">
-        <v>28.4638587979879</v>
+        <v>19.65443008871873</v>
       </c>
       <c r="P81">
-        <v>5.295690941751761</v>
+        <v>4.712491446507162</v>
       </c>
       <c r="Q81">
-        <v>0.09697999999999997</v>
+        <v>0.07657999999999998</v>
       </c>
       <c r="R81">
-        <v>0.1</v>
+        <v>0.05469002695417791</v>
       </c>
       <c r="S81" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="T81" t="s">
         <v>507</v>
@@ -7582,7 +7583,7 @@
         <v>508</v>
       </c>
       <c r="V81" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="W81" t="s">
         <v>523</v>
@@ -7644,7 +7645,7 @@
         <v>0.103448275862069</v>
       </c>
       <c r="S82" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T82" t="s">
         <v>507</v>
@@ -7694,25 +7695,25 @@
         <v>376</v>
       </c>
       <c r="L83">
-        <v>-64.37532102144681</v>
+        <v>-72.36815408559946</v>
       </c>
       <c r="M83">
-        <v>233.687475323677</v>
+        <v>204.812541604042</v>
       </c>
       <c r="N83">
-        <v>0.1132995188236236</v>
+        <v>0.07000912725925446</v>
       </c>
       <c r="O83">
-        <v>30.51544600997149</v>
+        <v>17.83974467473199</v>
       </c>
       <c r="P83">
-        <v>3.715661535987216</v>
+        <v>1.749115450277738</v>
       </c>
       <c r="Q83">
-        <v>0.03625999999999997</v>
+        <v>0.02867999999999992</v>
       </c>
       <c r="R83">
-        <v>0.1137483206448724</v>
+        <v>0.4410447761194029</v>
       </c>
       <c r="S83" t="s">
         <v>482</v>
@@ -7721,10 +7722,10 @@
         <v>507</v>
       </c>
       <c r="U83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V83" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="W83" t="s">
         <v>524</v>
@@ -7836,25 +7837,25 @@
         <v>378</v>
       </c>
       <c r="L85">
-        <v>-72.36815408559946</v>
+        <v>-64.37532102144681</v>
       </c>
       <c r="M85">
-        <v>204.812541604042</v>
+        <v>233.687475323677</v>
       </c>
       <c r="N85">
-        <v>0.07000912725925446</v>
+        <v>0.1132995188236236</v>
       </c>
       <c r="O85">
-        <v>17.83974467473199</v>
+        <v>30.51544600997149</v>
       </c>
       <c r="P85">
-        <v>1.749115450277738</v>
+        <v>3.715661535987216</v>
       </c>
       <c r="Q85">
-        <v>0.02867999999999992</v>
+        <v>0.03625999999999997</v>
       </c>
       <c r="R85">
-        <v>0.4410447761194029</v>
+        <v>0.1137483206448724</v>
       </c>
       <c r="S85" t="s">
         <v>483</v>
@@ -7863,10 +7864,10 @@
         <v>507</v>
       </c>
       <c r="U85" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V85" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="W85" t="s">
         <v>524</v>
@@ -8212,7 +8213,7 @@
         <v>0.1353495290034706</v>
       </c>
       <c r="S90" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T90" t="s">
         <v>507</v>
@@ -8241,7 +8242,7 @@
         <v>202</v>
       </c>
       <c r="E91">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="F91" t="s">
         <v>272</v>
@@ -8256,43 +8257,43 @@
         <v>283</v>
       </c>
       <c r="J91" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K91" t="s">
         <v>384</v>
       </c>
       <c r="L91">
-        <v>-70.41262588500976</v>
+        <v>-70.68240465436664</v>
       </c>
       <c r="M91">
-        <v>56.25003948807717</v>
+        <v>98.95218163728714</v>
       </c>
       <c r="N91">
-        <v>0.1191399022936821</v>
+        <v>0.03445490449666977</v>
       </c>
       <c r="O91">
-        <v>4.986404548750552</v>
+        <v>13.37509737897112</v>
       </c>
       <c r="P91">
-        <v>1.404671200521333</v>
+        <v>3.653981498587273</v>
       </c>
       <c r="Q91">
-        <v>0.03135999999999994</v>
+        <v>0.03633999999999993</v>
       </c>
       <c r="R91">
-        <v>0.5749999999999992</v>
+        <v>0.1687499999999999</v>
       </c>
       <c r="S91" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="T91" t="s">
         <v>507</v>
       </c>
       <c r="U91" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V91" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="W91" t="s">
         <v>524</v>
@@ -8312,7 +8313,7 @@
         <v>203</v>
       </c>
       <c r="E92">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F92" t="s">
         <v>272</v>
@@ -8327,43 +8328,43 @@
         <v>283</v>
       </c>
       <c r="J92" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K92" t="s">
         <v>385</v>
       </c>
       <c r="L92">
-        <v>-70.68240465436664</v>
+        <v>-70.41262588500976</v>
       </c>
       <c r="M92">
-        <v>98.95218163728714</v>
+        <v>56.25003948807717</v>
       </c>
       <c r="N92">
-        <v>0.03445490449666977</v>
+        <v>0.1191399022936821</v>
       </c>
       <c r="O92">
-        <v>13.37509737897112</v>
+        <v>4.986404548750552</v>
       </c>
       <c r="P92">
-        <v>3.653981498587273</v>
+        <v>1.404671200521333</v>
       </c>
       <c r="Q92">
-        <v>0.03633999999999993</v>
+        <v>0.03135999999999994</v>
       </c>
       <c r="R92">
-        <v>0.1687499999999999</v>
+        <v>0.5749999999999992</v>
       </c>
       <c r="S92" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="T92" t="s">
         <v>507</v>
       </c>
       <c r="U92" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V92" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="W92" t="s">
         <v>524</v>
@@ -8383,7 +8384,7 @@
         <v>204</v>
       </c>
       <c r="E93">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F93" t="s">
         <v>272</v>
@@ -8395,37 +8396,37 @@
         <v>280</v>
       </c>
       <c r="I93" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J93" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K93" t="s">
         <v>386</v>
       </c>
       <c r="L93">
-        <v>-74.50958633422852</v>
+        <v>-74.09527206420898</v>
       </c>
       <c r="M93">
-        <v>161.5624576807022</v>
+        <v>183.1874400377274</v>
       </c>
       <c r="N93">
-        <v>0.02702108211815357</v>
+        <v>0.2241315990686417</v>
       </c>
       <c r="O93">
-        <v>9.448978888513043</v>
+        <v>24.03129421837632</v>
       </c>
       <c r="P93">
-        <v>3.637656974650549</v>
+        <v>3.431840094654087</v>
       </c>
       <c r="Q93">
-        <v>0.02051999999999998</v>
+        <v>0.06755999999999995</v>
       </c>
       <c r="R93">
-        <v>0.1840909090909088</v>
+        <v>0.04500000000000003</v>
       </c>
       <c r="S93" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="T93" t="s">
         <v>507</v>
@@ -8434,7 +8435,7 @@
         <v>509</v>
       </c>
       <c r="V93" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="W93" t="s">
         <v>525</v>
@@ -8454,7 +8455,7 @@
         <v>205</v>
       </c>
       <c r="E94">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F94" t="s">
         <v>272</v>
@@ -8466,37 +8467,37 @@
         <v>280</v>
       </c>
       <c r="I94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J94" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K94" t="s">
         <v>387</v>
       </c>
       <c r="L94">
-        <v>-74.09527206420898</v>
+        <v>-74.50958633422852</v>
       </c>
       <c r="M94">
-        <v>183.1874400377274</v>
+        <v>161.5624576807022</v>
       </c>
       <c r="N94">
-        <v>0.2241315990686417</v>
+        <v>0.02702108211815357</v>
       </c>
       <c r="O94">
-        <v>24.03129421837632</v>
+        <v>9.448978888513043</v>
       </c>
       <c r="P94">
-        <v>3.431840094654087</v>
+        <v>3.637656974650549</v>
       </c>
       <c r="Q94">
-        <v>0.06755999999999995</v>
+        <v>0.02051999999999998</v>
       </c>
       <c r="R94">
-        <v>0.04500000000000003</v>
+        <v>0.1840909090909088</v>
       </c>
       <c r="S94" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="T94" t="s">
         <v>507</v>
@@ -8505,7 +8506,7 @@
         <v>509</v>
       </c>
       <c r="V94" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="W94" t="s">
         <v>525</v>
@@ -8679,14 +8680,35 @@
         <v>280</v>
       </c>
       <c r="I97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J97" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K97" t="s">
         <v>390</v>
       </c>
+      <c r="L97">
+        <v>-74.36641693115234</v>
+      </c>
+      <c r="M97">
+        <v>112.4759539961815</v>
+      </c>
+      <c r="N97">
+        <v>0.06385121494531631</v>
+      </c>
+      <c r="O97">
+        <v>9.76169391947384</v>
+      </c>
+      <c r="P97">
+        <v>4.066952171488025</v>
+      </c>
+      <c r="Q97">
+        <v>0.08095999999999992</v>
+      </c>
+      <c r="R97">
+        <v>0.1396551724137932</v>
+      </c>
       <c r="S97" t="s">
         <v>487</v>
       </c>
@@ -8697,7 +8719,7 @@
         <v>509</v>
       </c>
       <c r="V97" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="W97" t="s">
         <v>523</v>
@@ -8729,35 +8751,14 @@
         <v>280</v>
       </c>
       <c r="I98" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J98" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K98" t="s">
         <v>391</v>
       </c>
-      <c r="L98">
-        <v>-74.36641693115234</v>
-      </c>
-      <c r="M98">
-        <v>112.4759539961815</v>
-      </c>
-      <c r="N98">
-        <v>0.06385121494531631</v>
-      </c>
-      <c r="O98">
-        <v>9.76169391947384</v>
-      </c>
-      <c r="P98">
-        <v>4.066952171488025</v>
-      </c>
-      <c r="Q98">
-        <v>0.08095999999999992</v>
-      </c>
-      <c r="R98">
-        <v>0.1396551724137932</v>
-      </c>
       <c r="S98" t="s">
         <v>488</v>
       </c>
@@ -8768,7 +8769,7 @@
         <v>509</v>
       </c>
       <c r="V98" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="W98" t="s">
         <v>523</v>
@@ -8859,7 +8860,7 @@
         <v>211</v>
       </c>
       <c r="E100">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="F100" t="s">
         <v>272</v>
@@ -8871,37 +8872,16 @@
         <v>280</v>
       </c>
       <c r="I100" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J100" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K100" t="s">
         <v>393</v>
       </c>
-      <c r="L100">
-        <v>-77.5150874744762</v>
-      </c>
-      <c r="M100">
-        <v>135.1562440395355</v>
-      </c>
-      <c r="N100">
-        <v>0.07528121769428253</v>
-      </c>
-      <c r="O100">
-        <v>22.84217346664942</v>
-      </c>
-      <c r="P100">
-        <v>3.589581210465552</v>
-      </c>
-      <c r="Q100">
-        <v>0.05683999999999999</v>
-      </c>
-      <c r="R100">
-        <v>0.0793103448275862</v>
-      </c>
       <c r="S100" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="T100" t="s">
         <v>507</v>
@@ -8910,7 +8890,7 @@
         <v>508</v>
       </c>
       <c r="V100" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="W100" t="s">
         <v>524</v>
@@ -8930,7 +8910,7 @@
         <v>212</v>
       </c>
       <c r="E101">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="F101" t="s">
         <v>272</v>
@@ -8942,16 +8922,37 @@
         <v>280</v>
       </c>
       <c r="I101" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="J101" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K101" t="s">
         <v>394</v>
       </c>
+      <c r="L101">
+        <v>-77.5150874744762</v>
+      </c>
+      <c r="M101">
+        <v>135.1562440395355</v>
+      </c>
+      <c r="N101">
+        <v>0.07528121769428253</v>
+      </c>
+      <c r="O101">
+        <v>22.84217346664942</v>
+      </c>
+      <c r="P101">
+        <v>3.589581210465552</v>
+      </c>
+      <c r="Q101">
+        <v>0.05683999999999999</v>
+      </c>
+      <c r="R101">
+        <v>0.0793103448275862</v>
+      </c>
       <c r="S101" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="T101" t="s">
         <v>507</v>
@@ -8960,7 +8961,7 @@
         <v>508</v>
       </c>
       <c r="V101" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="W101" t="s">
         <v>524</v>
@@ -9051,7 +9052,7 @@
         <v>214</v>
       </c>
       <c r="E103">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="F103" t="s">
         <v>272</v>
@@ -9063,7 +9064,7 @@
         <v>280</v>
       </c>
       <c r="I103" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="J103" t="s">
         <v>290</v>
@@ -9072,37 +9073,37 @@
         <v>396</v>
       </c>
       <c r="L103">
-        <v>-71.48782487349077</v>
+        <v>-73.79342727661133</v>
       </c>
       <c r="M103">
-        <v>145.6249952316284</v>
+        <v>124.8125433921814</v>
       </c>
       <c r="N103">
-        <v>0.06759557873010635</v>
+        <v>0.2452678829431534</v>
       </c>
       <c r="O103">
-        <v>10.08182284561974</v>
+        <v>16.91654419383897</v>
       </c>
       <c r="P103">
-        <v>1.413100576752291</v>
+        <v>3.653898740516449</v>
       </c>
       <c r="Q103">
-        <v>0.01429999999999998</v>
+        <v>0.04711999999999994</v>
       </c>
       <c r="R103">
-        <v>0.6801724137931036</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="S103" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="T103" t="s">
         <v>507</v>
       </c>
       <c r="U103" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V103" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W103" t="s">
         <v>525</v>
@@ -9122,7 +9123,7 @@
         <v>215</v>
       </c>
       <c r="E104">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="F104" t="s">
         <v>272</v>
@@ -9134,7 +9135,7 @@
         <v>280</v>
       </c>
       <c r="I104" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J104" t="s">
         <v>290</v>
@@ -9143,37 +9144,37 @@
         <v>397</v>
       </c>
       <c r="L104">
-        <v>-69.68302774429321</v>
+        <v>-71.48782487349077</v>
       </c>
       <c r="M104">
-        <v>230.1874756813049</v>
+        <v>145.6249952316284</v>
       </c>
       <c r="N104">
-        <v>0.142915815114975</v>
+        <v>0.06759557873010635</v>
       </c>
       <c r="O104">
-        <v>25.3960848818044</v>
+        <v>10.08182284561974</v>
       </c>
       <c r="P104">
-        <v>3.520499592327257</v>
+        <v>1.413100576752291</v>
       </c>
       <c r="Q104">
-        <v>0.05257999999999996</v>
+        <v>0.01429999999999998</v>
       </c>
       <c r="R104">
-        <v>0.2147212543554007</v>
+        <v>0.6801724137931036</v>
       </c>
       <c r="S104" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="T104" t="s">
         <v>507</v>
       </c>
       <c r="U104" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V104" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W104" t="s">
         <v>525</v>
@@ -9193,7 +9194,7 @@
         <v>216</v>
       </c>
       <c r="E105">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="F105" t="s">
         <v>272</v>
@@ -9205,37 +9206,16 @@
         <v>280</v>
       </c>
       <c r="I105" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J105" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K105" t="s">
         <v>398</v>
       </c>
-      <c r="L105">
-        <v>-73.79342727661133</v>
-      </c>
-      <c r="M105">
-        <v>124.8125433921814</v>
-      </c>
-      <c r="N105">
-        <v>0.2452678829431534</v>
-      </c>
-      <c r="O105">
-        <v>16.91654419383897</v>
-      </c>
-      <c r="P105">
-        <v>3.653898740516449</v>
-      </c>
-      <c r="Q105">
-        <v>0.04711999999999994</v>
-      </c>
-      <c r="R105">
-        <v>0.1600000000000001</v>
-      </c>
       <c r="S105" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="T105" t="s">
         <v>507</v>
@@ -9244,7 +9224,7 @@
         <v>508</v>
       </c>
       <c r="V105" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W105" t="s">
         <v>525</v>
@@ -9264,7 +9244,7 @@
         <v>217</v>
       </c>
       <c r="E106">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="F106" t="s">
         <v>272</v>
@@ -9276,16 +9256,37 @@
         <v>280</v>
       </c>
       <c r="I106" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="J106" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K106" t="s">
         <v>399</v>
       </c>
+      <c r="L106">
+        <v>-69.68302774429321</v>
+      </c>
+      <c r="M106">
+        <v>230.1874756813049</v>
+      </c>
+      <c r="N106">
+        <v>0.142915815114975</v>
+      </c>
+      <c r="O106">
+        <v>25.3960848818044</v>
+      </c>
+      <c r="P106">
+        <v>3.520499592327257</v>
+      </c>
+      <c r="Q106">
+        <v>0.05257999999999996</v>
+      </c>
+      <c r="R106">
+        <v>0.2147212543554007</v>
+      </c>
       <c r="S106" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="T106" t="s">
         <v>507</v>
@@ -9294,7 +9295,7 @@
         <v>508</v>
       </c>
       <c r="V106" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="W106" t="s">
         <v>525</v>
@@ -9527,7 +9528,7 @@
         <v>221</v>
       </c>
       <c r="E110">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F110" t="s">
         <v>272</v>
@@ -9542,34 +9543,34 @@
         <v>281</v>
       </c>
       <c r="J110" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K110" t="s">
         <v>403</v>
       </c>
       <c r="L110">
-        <v>-68.51063842773438</v>
+        <v>-74.39758237202963</v>
       </c>
       <c r="M110">
-        <v>76.37504488229752</v>
+        <v>131.406232714653</v>
       </c>
       <c r="N110">
-        <v>0.2116644829511642</v>
+        <v>0.03742431476712227</v>
       </c>
       <c r="O110">
-        <v>12.04383231032964</v>
+        <v>10.7444005598269</v>
       </c>
       <c r="P110">
-        <v>2.564509725402613</v>
+        <v>2.092895546004321</v>
       </c>
       <c r="Q110">
-        <v>0.04399999999999993</v>
+        <v>0.03210000000000002</v>
       </c>
       <c r="R110">
-        <v>0.1500000000000002</v>
+        <v>0.2150000000000002</v>
       </c>
       <c r="S110" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="T110" t="s">
         <v>507</v>
@@ -9578,7 +9579,7 @@
         <v>508</v>
       </c>
       <c r="V110" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W110" t="s">
         <v>524</v>
@@ -9669,7 +9670,7 @@
         <v>223</v>
       </c>
       <c r="E112">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F112" t="s">
         <v>272</v>
@@ -9684,34 +9685,34 @@
         <v>281</v>
       </c>
       <c r="J112" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K112" t="s">
         <v>405</v>
       </c>
       <c r="L112">
-        <v>-74.39758237202963</v>
+        <v>-68.51063842773438</v>
       </c>
       <c r="M112">
-        <v>131.406232714653</v>
+        <v>76.37504488229752</v>
       </c>
       <c r="N112">
-        <v>0.03742431476712227</v>
+        <v>0.2116644829511642</v>
       </c>
       <c r="O112">
-        <v>10.7444005598269</v>
+        <v>12.04383231032964</v>
       </c>
       <c r="P112">
-        <v>2.092895546004321</v>
+        <v>2.564509725402613</v>
       </c>
       <c r="Q112">
-        <v>0.03210000000000002</v>
+        <v>0.04399999999999993</v>
       </c>
       <c r="R112">
-        <v>0.2150000000000002</v>
+        <v>0.1500000000000002</v>
       </c>
       <c r="S112" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="T112" t="s">
         <v>507</v>
@@ -9720,7 +9721,7 @@
         <v>508</v>
       </c>
       <c r="V112" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="W112" t="s">
         <v>524</v>
@@ -10379,7 +10380,7 @@
         <v>233</v>
       </c>
       <c r="E122">
-        <v>590</v>
+        <v>2500</v>
       </c>
       <c r="F122" t="s">
         <v>272</v>
@@ -10391,37 +10392,37 @@
         <v>280</v>
       </c>
       <c r="I122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J122" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K122" t="s">
         <v>415</v>
       </c>
       <c r="L122">
-        <v>-73.03890927632648</v>
+        <v>-83.26625595092773</v>
       </c>
       <c r="M122">
-        <v>145.7500457763672</v>
+        <v>110.5311959981918</v>
       </c>
       <c r="N122">
-        <v>0.08477722853422165</v>
+        <v>0.07617437839508058</v>
       </c>
       <c r="O122">
-        <v>29.67374284353084</v>
+        <v>14.23682800099685</v>
       </c>
       <c r="P122">
-        <v>4.094658958535026</v>
+        <v>3.727009917673748</v>
       </c>
       <c r="Q122">
-        <v>0.08031999999999995</v>
+        <v>0.07121999999999995</v>
       </c>
       <c r="R122">
-        <v>0.1146341463414635</v>
+        <v>0.1099999999999999</v>
       </c>
       <c r="S122" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="T122" t="s">
         <v>507</v>
@@ -10450,7 +10451,7 @@
         <v>234</v>
       </c>
       <c r="E123">
-        <v>2500</v>
+        <v>590</v>
       </c>
       <c r="F123" t="s">
         <v>272</v>
@@ -10462,37 +10463,37 @@
         <v>280</v>
       </c>
       <c r="I123" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J123" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K123" t="s">
         <v>416</v>
       </c>
       <c r="L123">
-        <v>-83.26625595092773</v>
+        <v>-73.03890927632648</v>
       </c>
       <c r="M123">
-        <v>110.5311959981918</v>
+        <v>145.7500457763672</v>
       </c>
       <c r="N123">
-        <v>0.07617437839508058</v>
+        <v>0.08477722853422165</v>
       </c>
       <c r="O123">
-        <v>14.23682800099685</v>
+        <v>29.67374284353084</v>
       </c>
       <c r="P123">
-        <v>3.727009917673748</v>
+        <v>4.094658958535026</v>
       </c>
       <c r="Q123">
-        <v>0.07121999999999995</v>
+        <v>0.08031999999999995</v>
       </c>
       <c r="R123">
-        <v>0.1099999999999999</v>
+        <v>0.1146341463414635</v>
       </c>
       <c r="S123" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="T123" t="s">
         <v>507</v>
@@ -10663,7 +10664,7 @@
         <v>237</v>
       </c>
       <c r="E126">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="F126" t="s">
         <v>272</v>
@@ -10675,37 +10676,37 @@
         <v>280</v>
       </c>
       <c r="I126" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="J126" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K126" t="s">
         <v>419</v>
       </c>
       <c r="L126">
-        <v>-78.66938705444336</v>
+        <v>-59.74599151611328</v>
       </c>
       <c r="M126">
-        <v>47.28122800588608</v>
+        <v>160.9375029802323</v>
       </c>
       <c r="N126">
-        <v>0.01426559127867222</v>
+        <v>0.04521901905536652</v>
       </c>
       <c r="O126">
-        <v>8.369213317220298</v>
+        <v>16.26660786597379</v>
       </c>
       <c r="P126">
-        <v>4.940441390418837</v>
+        <v>3.08866579341253</v>
       </c>
       <c r="Q126">
-        <v>0.08265999999999996</v>
+        <v>0.02159999999999996</v>
       </c>
       <c r="R126">
-        <v>0.08499999999999971</v>
+        <v>-1.81906028133625e-18</v>
       </c>
       <c r="S126" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="T126" t="s">
         <v>507</v>
@@ -10714,7 +10715,7 @@
         <v>508</v>
       </c>
       <c r="V126" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="W126" t="s">
         <v>524</v>
@@ -10805,7 +10806,7 @@
         <v>239</v>
       </c>
       <c r="E128">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F128" t="s">
         <v>272</v>
@@ -10817,37 +10818,37 @@
         <v>280</v>
       </c>
       <c r="I128" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J128" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K128" t="s">
         <v>421</v>
       </c>
       <c r="L128">
-        <v>-59.74599151611328</v>
+        <v>-78.66938705444336</v>
       </c>
       <c r="M128">
-        <v>160.9375029802323</v>
+        <v>47.28122800588608</v>
       </c>
       <c r="N128">
-        <v>0.04521901905536652</v>
+        <v>0.01426559127867222</v>
       </c>
       <c r="O128">
-        <v>16.26660786597379</v>
+        <v>8.369213317220298</v>
       </c>
       <c r="P128">
-        <v>3.08866579341253</v>
+        <v>4.940441390418837</v>
       </c>
       <c r="Q128">
-        <v>0.02159999999999996</v>
+        <v>0.08265999999999996</v>
       </c>
       <c r="R128">
-        <v>-1.81906028133625e-18</v>
+        <v>0.08499999999999971</v>
       </c>
       <c r="S128" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="T128" t="s">
         <v>507</v>
@@ -10856,7 +10857,7 @@
         <v>508</v>
       </c>
       <c r="V128" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="W128" t="s">
         <v>524</v>
@@ -10876,7 +10877,7 @@
         <v>240</v>
       </c>
       <c r="E129">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F129" t="s">
         <v>272</v>
@@ -10891,43 +10892,43 @@
         <v>281</v>
       </c>
       <c r="J129" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K129" t="s">
         <v>422</v>
       </c>
       <c r="L129">
-        <v>-67.18873850504558</v>
+        <v>-64.13687057495117</v>
       </c>
       <c r="M129">
-        <v>137.7811878919601</v>
+        <v>232.7500581741333</v>
       </c>
       <c r="N129">
-        <v>0.192816898226738</v>
+        <v>0.08619991689920425</v>
       </c>
       <c r="O129">
-        <v>19.94538133821103</v>
+        <v>18.13756529331257</v>
       </c>
       <c r="P129">
-        <v>4.399358082279964</v>
+        <v>3.94293752847828</v>
       </c>
       <c r="Q129">
-        <v>0.04049999999999998</v>
+        <v>0.02399999999999991</v>
       </c>
       <c r="R129">
-        <v>0.1646551724137932</v>
+        <v>0.1700000000000001</v>
       </c>
       <c r="S129" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="T129" t="s">
         <v>507</v>
       </c>
       <c r="U129" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V129" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="W129" t="s">
         <v>525</v>
@@ -10947,7 +10948,7 @@
         <v>241</v>
       </c>
       <c r="E130">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="F130" t="s">
         <v>272</v>
@@ -10962,43 +10963,43 @@
         <v>281</v>
       </c>
       <c r="J130" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K130" t="s">
         <v>423</v>
       </c>
       <c r="L130">
-        <v>-64.13687057495117</v>
+        <v>-67.18873850504558</v>
       </c>
       <c r="M130">
-        <v>232.7500581741333</v>
+        <v>137.7811878919601</v>
       </c>
       <c r="N130">
-        <v>0.08619991689920425</v>
+        <v>0.192816898226738</v>
       </c>
       <c r="O130">
-        <v>18.13756529331257</v>
+        <v>19.94538133821103</v>
       </c>
       <c r="P130">
-        <v>3.94293752847828</v>
+        <v>4.399358082279964</v>
       </c>
       <c r="Q130">
-        <v>0.02399999999999991</v>
+        <v>0.04049999999999998</v>
       </c>
       <c r="R130">
-        <v>0.1700000000000001</v>
+        <v>0.1646551724137932</v>
       </c>
       <c r="S130" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="T130" t="s">
         <v>507</v>
       </c>
       <c r="U130" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V130" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="W130" t="s">
         <v>525</v>
@@ -11515,7 +11516,7 @@
         <v>249</v>
       </c>
       <c r="E138">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F138" t="s">
         <v>272</v>
@@ -11527,7 +11528,7 @@
         <v>280</v>
       </c>
       <c r="I138" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J138" t="s">
         <v>289</v>
@@ -11536,28 +11537,28 @@
         <v>431</v>
       </c>
       <c r="L138">
-        <v>-60.06249895962802</v>
+        <v>-70.99745359874908</v>
       </c>
       <c r="M138">
-        <v>179.3125867843628</v>
+        <v>143.5427814722061</v>
       </c>
       <c r="N138">
-        <v>0.03091482818126678</v>
+        <v>0.02972636185586452</v>
       </c>
       <c r="O138">
-        <v>8.977125485722471</v>
+        <v>7.980095535314167</v>
       </c>
       <c r="P138">
-        <v>3.081235596616698</v>
+        <v>3.097633674043886</v>
       </c>
       <c r="Q138">
-        <v>0.01319999999999999</v>
+        <v>0.03113999999999994</v>
       </c>
       <c r="R138">
-        <v>0.1577586206896553</v>
+        <v>0.09055555555555556</v>
       </c>
       <c r="S138" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T138" t="s">
         <v>507</v>
@@ -11586,7 +11587,7 @@
         <v>250</v>
       </c>
       <c r="E139">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F139" t="s">
         <v>272</v>
@@ -11598,7 +11599,7 @@
         <v>280</v>
       </c>
       <c r="I139" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J139" t="s">
         <v>289</v>
@@ -11607,28 +11608,28 @@
         <v>432</v>
       </c>
       <c r="L139">
-        <v>-70.99745359874908</v>
+        <v>-60.06249895962802</v>
       </c>
       <c r="M139">
-        <v>143.5427814722061</v>
+        <v>179.3125867843628</v>
       </c>
       <c r="N139">
-        <v>0.02972636185586452</v>
+        <v>0.03091482818126678</v>
       </c>
       <c r="O139">
-        <v>7.980095535314167</v>
+        <v>8.977125485722471</v>
       </c>
       <c r="P139">
-        <v>3.097633674043886</v>
+        <v>3.081235596616698</v>
       </c>
       <c r="Q139">
-        <v>0.03113999999999994</v>
+        <v>0.01319999999999999</v>
       </c>
       <c r="R139">
-        <v>0.09055555555555556</v>
+        <v>0.1577586206896553</v>
       </c>
       <c r="S139" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T139" t="s">
         <v>507</v>
@@ -11728,7 +11729,7 @@
         <v>252</v>
       </c>
       <c r="E141">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F141" t="s">
         <v>272</v>
@@ -11743,34 +11744,34 @@
         <v>282</v>
       </c>
       <c r="J141" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K141" t="s">
         <v>434</v>
       </c>
       <c r="L141">
-        <v>-68.22841505570845</v>
+        <v>-68.89998703002929</v>
       </c>
       <c r="M141">
-        <v>141.062542796135</v>
+        <v>122.0312863588333</v>
       </c>
       <c r="N141">
-        <v>0.1655260622501373</v>
+        <v>0.2529853284358978</v>
       </c>
       <c r="O141">
-        <v>20.71353893552147</v>
+        <v>17.68139665633804</v>
       </c>
       <c r="P141">
-        <v>4.848517079441168</v>
+        <v>5.067811770776387</v>
       </c>
       <c r="Q141">
-        <v>0.05506</v>
+        <v>0.05164000000000002</v>
       </c>
       <c r="R141">
-        <v>0.1094827586206896</v>
+        <v>0.135</v>
       </c>
       <c r="S141" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="T141" t="s">
         <v>507</v>
@@ -11799,7 +11800,7 @@
         <v>253</v>
       </c>
       <c r="E142">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F142" t="s">
         <v>272</v>
@@ -11814,34 +11815,34 @@
         <v>282</v>
       </c>
       <c r="J142" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K142" t="s">
         <v>435</v>
       </c>
       <c r="L142">
-        <v>-68.89998703002929</v>
+        <v>-68.22841505570845</v>
       </c>
       <c r="M142">
-        <v>122.0312863588333</v>
+        <v>141.062542796135</v>
       </c>
       <c r="N142">
-        <v>0.2529853284358978</v>
+        <v>0.1655260622501373</v>
       </c>
       <c r="O142">
-        <v>17.68139665633804</v>
+        <v>20.71353893552147</v>
       </c>
       <c r="P142">
-        <v>5.067811770776387</v>
+        <v>4.848517079441168</v>
       </c>
       <c r="Q142">
-        <v>0.05164000000000002</v>
+        <v>0.05506</v>
       </c>
       <c r="R142">
-        <v>0.135</v>
+        <v>0.1094827586206896</v>
       </c>
       <c r="S142" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="T142" t="s">
         <v>507</v>
@@ -12033,28 +12034,28 @@
         <v>438</v>
       </c>
       <c r="L145">
-        <v>-69.80312728881836</v>
+        <v>-64.20182952880859</v>
       </c>
       <c r="M145">
-        <v>155.3124636411667</v>
+        <v>131.2501132488251</v>
       </c>
       <c r="N145">
-        <v>0.2057251185178757</v>
+        <v>0.1014374941587448</v>
       </c>
       <c r="O145">
-        <v>14.55421937959071</v>
+        <v>14.86542542379796</v>
       </c>
       <c r="P145">
-        <v>3.204645173872949</v>
+        <v>4.4780535929103</v>
       </c>
       <c r="Q145">
-        <v>0.03099999999999992</v>
+        <v>0.05277999999999994</v>
       </c>
       <c r="R145">
-        <v>0.3053863195790639</v>
+        <v>0.1250000000000001</v>
       </c>
       <c r="S145" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="T145" t="s">
         <v>507</v>
@@ -12104,25 +12105,25 @@
         <v>439</v>
       </c>
       <c r="L146">
-        <v>-64.20182952880859</v>
+        <v>-67.49581146240234</v>
       </c>
       <c r="M146">
-        <v>131.2501132488251</v>
+        <v>105.8125272393227</v>
       </c>
       <c r="N146">
-        <v>0.1014374941587448</v>
+        <v>0.1971761435270309</v>
       </c>
       <c r="O146">
-        <v>14.86542542379796</v>
+        <v>14.90652548802275</v>
       </c>
       <c r="P146">
-        <v>4.4780535929103</v>
+        <v>5.490276016892333</v>
       </c>
       <c r="Q146">
-        <v>0.05277999999999994</v>
+        <v>0.04189999999999994</v>
       </c>
       <c r="R146">
-        <v>0.1250000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="S146" t="s">
         <v>462</v>
@@ -12175,28 +12176,28 @@
         <v>440</v>
       </c>
       <c r="L147">
-        <v>-67.49581146240234</v>
+        <v>-69.80312728881836</v>
       </c>
       <c r="M147">
-        <v>105.8125272393227</v>
+        <v>155.3124636411667</v>
       </c>
       <c r="N147">
-        <v>0.1971761435270309</v>
+        <v>0.2057251185178757</v>
       </c>
       <c r="O147">
-        <v>14.90652548802275</v>
+        <v>14.55421937959071</v>
       </c>
       <c r="P147">
-        <v>5.490276016892333</v>
+        <v>3.204645173872949</v>
       </c>
       <c r="Q147">
-        <v>0.04189999999999994</v>
+        <v>0.03099999999999992</v>
       </c>
       <c r="R147">
-        <v>0.105</v>
+        <v>0.3053863195790639</v>
       </c>
       <c r="S147" t="s">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="T147" t="s">
         <v>507</v>
@@ -12225,10 +12226,10 @@
         <v>259</v>
       </c>
       <c r="E148">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="F148" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G148" t="s">
         <v>278</v>
@@ -12240,34 +12241,34 @@
         <v>282</v>
       </c>
       <c r="J148" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K148" t="s">
         <v>441</v>
       </c>
       <c r="L148">
-        <v>-60.08694943514738</v>
+        <v>-77.5438949584961</v>
       </c>
       <c r="M148">
-        <v>125.4062503576279</v>
+        <v>84.90634709596634</v>
       </c>
       <c r="N148">
-        <v>0.2124445587396621</v>
+        <v>0.02283207513391972</v>
       </c>
       <c r="O148">
-        <v>16.11699784223395</v>
+        <v>10.58478836404839</v>
       </c>
       <c r="P148">
-        <v>3.802811215208093</v>
+        <v>4.669442308770148</v>
       </c>
       <c r="Q148">
-        <v>0.05421999999999993</v>
+        <v>0.08185999999999992</v>
       </c>
       <c r="R148">
-        <v>0.146551724137931</v>
+        <v>0.15</v>
       </c>
       <c r="S148" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="T148" t="s">
         <v>507</v>
@@ -12276,7 +12277,7 @@
         <v>508</v>
       </c>
       <c r="V148" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="W148" t="s">
         <v>525</v>
@@ -12367,10 +12368,10 @@
         <v>261</v>
       </c>
       <c r="E150">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="F150" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G150" t="s">
         <v>278</v>
@@ -12382,34 +12383,34 @@
         <v>282</v>
       </c>
       <c r="J150" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K150" t="s">
         <v>443</v>
       </c>
       <c r="L150">
-        <v>-77.5438949584961</v>
+        <v>-60.08694943514738</v>
       </c>
       <c r="M150">
-        <v>84.90634709596634</v>
+        <v>125.4062503576279</v>
       </c>
       <c r="N150">
-        <v>0.02283207513391972</v>
+        <v>0.2124445587396621</v>
       </c>
       <c r="O150">
-        <v>10.58478836404839</v>
+        <v>16.11699784223395</v>
       </c>
       <c r="P150">
-        <v>4.669442308770148</v>
+        <v>3.802811215208093</v>
       </c>
       <c r="Q150">
-        <v>0.08185999999999992</v>
+        <v>0.05421999999999993</v>
       </c>
       <c r="R150">
-        <v>0.15</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="S150" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="T150" t="s">
         <v>507</v>
@@ -12418,7 +12419,7 @@
         <v>508</v>
       </c>
       <c r="V150" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="W150" t="s">
         <v>525</v>
@@ -12601,37 +12602,37 @@
         <v>446</v>
       </c>
       <c r="L153">
-        <v>-68.98751678466797</v>
+        <v>-70.13771640553193</v>
       </c>
       <c r="M153">
-        <v>95.78117728233336</v>
+        <v>231.6249907016754</v>
       </c>
       <c r="N153">
-        <v>0.3037847578525543</v>
+        <v>0.03269713744521141</v>
       </c>
       <c r="O153">
-        <v>13.6958637762721</v>
+        <v>29.22168900767441</v>
       </c>
       <c r="P153">
-        <v>3.521073328776704</v>
+        <v>2.408086057676418</v>
       </c>
       <c r="Q153">
-        <v>0.04543999999999992</v>
+        <v>0.03671999999999997</v>
       </c>
       <c r="R153">
-        <v>0.21</v>
+        <v>0.2314471243042671</v>
       </c>
       <c r="S153" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="T153" t="s">
         <v>507</v>
       </c>
       <c r="U153" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V153" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="W153" t="s">
         <v>524</v>
@@ -12672,37 +12673,37 @@
         <v>447</v>
       </c>
       <c r="L154">
-        <v>-70.13771640553193</v>
+        <v>-68.98751678466797</v>
       </c>
       <c r="M154">
-        <v>231.6249907016754</v>
+        <v>95.78117728233336</v>
       </c>
       <c r="N154">
-        <v>0.03269713744521141</v>
+        <v>0.3037847578525543</v>
       </c>
       <c r="O154">
-        <v>29.22168900767441</v>
+        <v>13.6958637762721</v>
       </c>
       <c r="P154">
-        <v>2.408086057676418</v>
+        <v>3.521073328776704</v>
       </c>
       <c r="Q154">
-        <v>0.03671999999999997</v>
+        <v>0.04543999999999992</v>
       </c>
       <c r="R154">
-        <v>0.2314471243042671</v>
+        <v>0.21</v>
       </c>
       <c r="S154" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="T154" t="s">
         <v>507</v>
       </c>
       <c r="U154" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V154" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="W154" t="s">
         <v>524</v>
@@ -13729,7 +13730,7 @@
         <v>135</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="F9" t="s">
         <v>272</v>
@@ -13749,8 +13750,29 @@
       <c r="K9" t="s">
         <v>317</v>
       </c>
+      <c r="L9">
+        <v>-65.09322357177734</v>
+      </c>
+      <c r="M9">
+        <v>62.38974258303642</v>
+      </c>
+      <c r="N9">
+        <v>0.1284336894750595</v>
+      </c>
+      <c r="O9">
+        <v>14.65924504299855</v>
+      </c>
+      <c r="P9">
+        <v>2.440515605526204</v>
+      </c>
+      <c r="Q9">
+        <v>0.04575999999999991</v>
+      </c>
+      <c r="R9">
+        <v>0.04462365591397849</v>
+      </c>
       <c r="S9" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="T9" t="s">
         <v>507</v>
@@ -13779,7 +13801,7 @@
         <v>136</v>
       </c>
       <c r="E10">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>272</v>
@@ -13799,29 +13821,8 @@
       <c r="K10" t="s">
         <v>318</v>
       </c>
-      <c r="L10">
-        <v>-65.09322357177734</v>
-      </c>
-      <c r="M10">
-        <v>62.38974258303642</v>
-      </c>
-      <c r="N10">
-        <v>0.1284336894750595</v>
-      </c>
-      <c r="O10">
-        <v>14.65924504299855</v>
-      </c>
-      <c r="P10">
-        <v>2.440515605526204</v>
-      </c>
-      <c r="Q10">
-        <v>0.04575999999999991</v>
-      </c>
-      <c r="R10">
-        <v>0.04462365591397849</v>
-      </c>
       <c r="S10" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="T10" t="s">
         <v>507</v>
@@ -14134,7 +14135,7 @@
         <v>149</v>
       </c>
       <c r="E15">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="F15" t="s">
         <v>272</v>
@@ -14146,7 +14147,7 @@
         <v>280</v>
       </c>
       <c r="I15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J15" t="s">
         <v>290</v>
@@ -14155,28 +14156,28 @@
         <v>331</v>
       </c>
       <c r="L15">
-        <v>-60.43675374984741</v>
+        <v>-69.86540451049805</v>
       </c>
       <c r="M15">
-        <v>357.4999868869781</v>
+        <v>82.78121799230577</v>
       </c>
       <c r="N15">
-        <v>0.2461453378200531</v>
+        <v>0.2024276405572891</v>
       </c>
       <c r="O15">
-        <v>43.94390355031575</v>
+        <v>12.9959679229506</v>
       </c>
       <c r="P15">
-        <v>4.015997984215793</v>
+        <v>2.968988451809159</v>
       </c>
       <c r="Q15">
-        <v>0.03549999999999998</v>
+        <v>0.03605999999999998</v>
       </c>
       <c r="R15">
-        <v>0.3185483870967742</v>
+        <v>0.1850000000000002</v>
       </c>
       <c r="S15" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="T15" t="s">
         <v>507</v>
@@ -14185,7 +14186,7 @@
         <v>508</v>
       </c>
       <c r="V15" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="W15" t="s">
         <v>524</v>
@@ -14205,7 +14206,7 @@
         <v>150</v>
       </c>
       <c r="E16">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="F16" t="s">
         <v>272</v>
@@ -14217,7 +14218,7 @@
         <v>280</v>
       </c>
       <c r="I16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J16" t="s">
         <v>290</v>
@@ -14226,28 +14227,28 @@
         <v>332</v>
       </c>
       <c r="L16">
-        <v>-69.86540451049805</v>
+        <v>-60.43675374984741</v>
       </c>
       <c r="M16">
-        <v>82.78121799230577</v>
+        <v>357.4999868869781</v>
       </c>
       <c r="N16">
-        <v>0.2024276405572891</v>
+        <v>0.2461453378200531</v>
       </c>
       <c r="O16">
-        <v>12.9959679229506</v>
+        <v>43.94390355031575</v>
       </c>
       <c r="P16">
-        <v>2.968988451809159</v>
+        <v>4.015997984215793</v>
       </c>
       <c r="Q16">
-        <v>0.03605999999999998</v>
+        <v>0.03549999999999998</v>
       </c>
       <c r="R16">
-        <v>0.1850000000000002</v>
+        <v>0.3185483870967742</v>
       </c>
       <c r="S16" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="T16" t="s">
         <v>507</v>
@@ -14256,7 +14257,7 @@
         <v>508</v>
       </c>
       <c r="V16" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="W16" t="s">
         <v>524</v>
@@ -14276,7 +14277,7 @@
         <v>152</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>272</v>
@@ -14288,7 +14289,7 @@
         <v>280</v>
       </c>
       <c r="I17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J17" t="s">
         <v>290</v>
@@ -14296,8 +14297,29 @@
       <c r="K17" t="s">
         <v>334</v>
       </c>
+      <c r="L17">
+        <v>-80.72271619524274</v>
+      </c>
+      <c r="M17">
+        <v>89.21876549720764</v>
+      </c>
+      <c r="N17">
+        <v>0.03722857683897018</v>
+      </c>
+      <c r="O17">
+        <v>13.076140406821</v>
+      </c>
+      <c r="P17">
+        <v>4.415684344016972</v>
+      </c>
+      <c r="Q17">
+        <v>0.07575999999999994</v>
+      </c>
+      <c r="R17">
+        <v>0.115</v>
+      </c>
       <c r="S17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="T17" t="s">
         <v>507</v>
@@ -14326,7 +14348,7 @@
         <v>153</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
         <v>272</v>
@@ -14338,7 +14360,7 @@
         <v>280</v>
       </c>
       <c r="I18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J18" t="s">
         <v>290</v>
@@ -14346,29 +14368,8 @@
       <c r="K18" t="s">
         <v>335</v>
       </c>
-      <c r="L18">
-        <v>-80.72271619524274</v>
-      </c>
-      <c r="M18">
-        <v>89.21876549720764</v>
-      </c>
-      <c r="N18">
-        <v>0.03722857683897018</v>
-      </c>
-      <c r="O18">
-        <v>13.076140406821</v>
-      </c>
-      <c r="P18">
-        <v>4.415684344016972</v>
-      </c>
-      <c r="Q18">
-        <v>0.07575999999999994</v>
-      </c>
-      <c r="R18">
-        <v>0.115</v>
-      </c>
       <c r="S18" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="T18" t="s">
         <v>507</v>
@@ -14397,7 +14398,7 @@
         <v>155</v>
       </c>
       <c r="E19">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F19" t="s">
         <v>272</v>
@@ -14409,7 +14410,7 @@
         <v>280</v>
       </c>
       <c r="I19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J19" t="s">
         <v>290</v>
@@ -14418,28 +14419,28 @@
         <v>337</v>
       </c>
       <c r="L19">
-        <v>-61.06369871251724</v>
+        <v>-60.17255748401988</v>
       </c>
       <c r="M19">
-        <v>181.5624684095383</v>
+        <v>98.59380871057509</v>
       </c>
       <c r="N19">
-        <v>0.07781945914030075</v>
+        <v>0.1359332054853439</v>
       </c>
       <c r="O19">
-        <v>26.8350017212737</v>
+        <v>12.54512654605853</v>
       </c>
       <c r="P19">
-        <v>2.48676037869948</v>
+        <v>3.400084198667335</v>
       </c>
       <c r="Q19">
-        <v>0.04315999999999998</v>
+        <v>0.03347999999999995</v>
       </c>
       <c r="R19">
-        <v>0.1685714285714287</v>
+        <v>0.2750000000000002</v>
       </c>
       <c r="S19" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="T19" t="s">
         <v>507</v>
@@ -14448,7 +14449,7 @@
         <v>508</v>
       </c>
       <c r="V19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W19" t="s">
         <v>524</v>
@@ -14468,7 +14469,7 @@
         <v>156</v>
       </c>
       <c r="E20">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F20" t="s">
         <v>272</v>
@@ -14480,7 +14481,7 @@
         <v>280</v>
       </c>
       <c r="I20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J20" t="s">
         <v>290</v>
@@ -14489,28 +14490,28 @@
         <v>338</v>
       </c>
       <c r="L20">
-        <v>-60.17255748401988</v>
+        <v>-61.06369871251724</v>
       </c>
       <c r="M20">
-        <v>98.59380871057509</v>
+        <v>181.5624684095383</v>
       </c>
       <c r="N20">
-        <v>0.1359332054853439</v>
+        <v>0.07781945914030075</v>
       </c>
       <c r="O20">
-        <v>12.54512654605853</v>
+        <v>26.8350017212737</v>
       </c>
       <c r="P20">
-        <v>3.400084198667335</v>
+        <v>2.48676037869948</v>
       </c>
       <c r="Q20">
-        <v>0.03347999999999995</v>
+        <v>0.04315999999999998</v>
       </c>
       <c r="R20">
-        <v>0.2750000000000002</v>
+        <v>0.1685714285714287</v>
       </c>
       <c r="S20" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="T20" t="s">
         <v>507</v>
@@ -14519,7 +14520,7 @@
         <v>508</v>
       </c>
       <c r="V20" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="W20" t="s">
         <v>524</v>
@@ -14598,7 +14599,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
@@ -14607,7 +14608,7 @@
         <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -14628,7 +14629,7 @@
         <v>290</v>
       </c>
       <c r="K22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L22">
         <v>-59.08920608520508</v>
@@ -14652,7 +14653,7 @@
         <v>0.07000000000000013</v>
       </c>
       <c r="S22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T22" t="s">
         <v>507</v>
@@ -14669,7 +14670,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -14678,7 +14679,7 @@
         <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -14699,7 +14700,7 @@
         <v>290</v>
       </c>
       <c r="K23" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="S23" t="s">
         <v>456</v>
@@ -15128,7 +15129,7 @@
         <v>0.103448275862069</v>
       </c>
       <c r="S29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T29" t="s">
         <v>507</v>
@@ -15178,25 +15179,25 @@
         <v>376</v>
       </c>
       <c r="L30">
-        <v>-64.37532102144681</v>
+        <v>-72.36815408559946</v>
       </c>
       <c r="M30">
-        <v>233.687475323677</v>
+        <v>204.812541604042</v>
       </c>
       <c r="N30">
-        <v>0.1132995188236236</v>
+        <v>0.07000912725925446</v>
       </c>
       <c r="O30">
-        <v>30.51544600997149</v>
+        <v>17.83974467473199</v>
       </c>
       <c r="P30">
-        <v>3.715661535987216</v>
+        <v>1.749115450277738</v>
       </c>
       <c r="Q30">
-        <v>0.03625999999999997</v>
+        <v>0.02867999999999992</v>
       </c>
       <c r="R30">
-        <v>0.1137483206448724</v>
+        <v>0.4410447761194029</v>
       </c>
       <c r="S30" t="s">
         <v>482</v>
@@ -15205,10 +15206,10 @@
         <v>507</v>
       </c>
       <c r="U30" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V30" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="W30" t="s">
         <v>524</v>
@@ -15320,25 +15321,25 @@
         <v>378</v>
       </c>
       <c r="L32">
-        <v>-72.36815408559946</v>
+        <v>-64.37532102144681</v>
       </c>
       <c r="M32">
-        <v>204.812541604042</v>
+        <v>233.687475323677</v>
       </c>
       <c r="N32">
-        <v>0.07000912725925446</v>
+        <v>0.1132995188236236</v>
       </c>
       <c r="O32">
-        <v>17.83974467473199</v>
+        <v>30.51544600997149</v>
       </c>
       <c r="P32">
-        <v>1.749115450277738</v>
+        <v>3.715661535987216</v>
       </c>
       <c r="Q32">
-        <v>0.02867999999999992</v>
+        <v>0.03625999999999997</v>
       </c>
       <c r="R32">
-        <v>0.4410447761194029</v>
+        <v>0.1137483206448724</v>
       </c>
       <c r="S32" t="s">
         <v>483</v>
@@ -15347,10 +15348,10 @@
         <v>507</v>
       </c>
       <c r="U32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V32" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="W32" t="s">
         <v>524</v>
@@ -15571,7 +15572,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
@@ -15580,7 +15581,7 @@
         <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -15601,7 +15602,7 @@
         <v>290</v>
       </c>
       <c r="K36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S36" t="s">
         <v>457</v>
@@ -15621,7 +15622,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
         <v>81</v>
@@ -15630,7 +15631,7 @@
         <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E37">
         <v>2500</v>
@@ -15651,7 +15652,7 @@
         <v>290</v>
       </c>
       <c r="K37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L37">
         <v>-71.48782487349077</v>
@@ -15692,7 +15693,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
         <v>81</v>
@@ -15701,7 +15702,7 @@
         <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E38">
         <v>2400</v>
@@ -15722,7 +15723,7 @@
         <v>289</v>
       </c>
       <c r="K38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S38" t="s">
         <v>470</v>
@@ -15896,7 +15897,7 @@
         <v>221</v>
       </c>
       <c r="E41">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F41" t="s">
         <v>272</v>
@@ -15911,34 +15912,34 @@
         <v>281</v>
       </c>
       <c r="J41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K41" t="s">
         <v>403</v>
       </c>
       <c r="L41">
-        <v>-68.51063842773438</v>
+        <v>-74.39758237202963</v>
       </c>
       <c r="M41">
-        <v>76.37504488229752</v>
+        <v>131.406232714653</v>
       </c>
       <c r="N41">
-        <v>0.2116644829511642</v>
+        <v>0.03742431476712227</v>
       </c>
       <c r="O41">
-        <v>12.04383231032964</v>
+        <v>10.7444005598269</v>
       </c>
       <c r="P41">
-        <v>2.564509725402613</v>
+        <v>2.092895546004321</v>
       </c>
       <c r="Q41">
-        <v>0.04399999999999993</v>
+        <v>0.03210000000000002</v>
       </c>
       <c r="R41">
-        <v>0.1500000000000002</v>
+        <v>0.2150000000000002</v>
       </c>
       <c r="S41" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="T41" t="s">
         <v>507</v>
@@ -15947,7 +15948,7 @@
         <v>508</v>
       </c>
       <c r="V41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W41" t="s">
         <v>524</v>
@@ -16038,7 +16039,7 @@
         <v>223</v>
       </c>
       <c r="E43">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F43" t="s">
         <v>272</v>
@@ -16053,34 +16054,34 @@
         <v>281</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K43" t="s">
         <v>405</v>
       </c>
       <c r="L43">
-        <v>-74.39758237202963</v>
+        <v>-68.51063842773438</v>
       </c>
       <c r="M43">
-        <v>131.406232714653</v>
+        <v>76.37504488229752</v>
       </c>
       <c r="N43">
-        <v>0.03742431476712227</v>
+        <v>0.2116644829511642</v>
       </c>
       <c r="O43">
-        <v>10.7444005598269</v>
+        <v>12.04383231032964</v>
       </c>
       <c r="P43">
-        <v>2.092895546004321</v>
+        <v>2.564509725402613</v>
       </c>
       <c r="Q43">
-        <v>0.03210000000000002</v>
+        <v>0.04399999999999993</v>
       </c>
       <c r="R43">
-        <v>0.2150000000000002</v>
+        <v>0.1500000000000002</v>
       </c>
       <c r="S43" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="T43" t="s">
         <v>507</v>
@@ -16089,7 +16090,7 @@
         <v>508</v>
       </c>
       <c r="V43" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="W43" t="s">
         <v>524</v>
@@ -16168,7 +16169,7 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
         <v>93</v>
@@ -16177,7 +16178,7 @@
         <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E45">
         <v>1100</v>
@@ -16198,7 +16199,7 @@
         <v>289</v>
       </c>
       <c r="K45" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L45">
         <v>-78.66938705444336</v>
@@ -16251,7 +16252,7 @@
         <v>240</v>
       </c>
       <c r="E46">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F46" t="s">
         <v>272</v>
@@ -16266,43 +16267,43 @@
         <v>281</v>
       </c>
       <c r="J46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K46" t="s">
         <v>422</v>
       </c>
       <c r="L46">
-        <v>-67.18873850504558</v>
+        <v>-64.13687057495117</v>
       </c>
       <c r="M46">
-        <v>137.7811878919601</v>
+        <v>232.7500581741333</v>
       </c>
       <c r="N46">
-        <v>0.192816898226738</v>
+        <v>0.08619991689920425</v>
       </c>
       <c r="O46">
-        <v>19.94538133821103</v>
+        <v>18.13756529331257</v>
       </c>
       <c r="P46">
-        <v>4.399358082279964</v>
+        <v>3.94293752847828</v>
       </c>
       <c r="Q46">
-        <v>0.04049999999999998</v>
+        <v>0.02399999999999991</v>
       </c>
       <c r="R46">
-        <v>0.1646551724137932</v>
+        <v>0.1700000000000001</v>
       </c>
       <c r="S46" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="T46" t="s">
         <v>507</v>
       </c>
       <c r="U46" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V46" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="W46" t="s">
         <v>525</v>
@@ -16322,7 +16323,7 @@
         <v>241</v>
       </c>
       <c r="E47">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="F47" t="s">
         <v>272</v>
@@ -16337,43 +16338,43 @@
         <v>281</v>
       </c>
       <c r="J47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K47" t="s">
         <v>423</v>
       </c>
       <c r="L47">
-        <v>-64.13687057495117</v>
+        <v>-67.18873850504558</v>
       </c>
       <c r="M47">
-        <v>232.7500581741333</v>
+        <v>137.7811878919601</v>
       </c>
       <c r="N47">
-        <v>0.08619991689920425</v>
+        <v>0.192816898226738</v>
       </c>
       <c r="O47">
-        <v>18.13756529331257</v>
+        <v>19.94538133821103</v>
       </c>
       <c r="P47">
-        <v>3.94293752847828</v>
+        <v>4.399358082279964</v>
       </c>
       <c r="Q47">
-        <v>0.02399999999999991</v>
+        <v>0.04049999999999998</v>
       </c>
       <c r="R47">
-        <v>0.1700000000000001</v>
+        <v>0.1646551724137932</v>
       </c>
       <c r="S47" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="T47" t="s">
         <v>507</v>
       </c>
       <c r="U47" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="W47" t="s">
         <v>525</v>
@@ -16464,7 +16465,7 @@
         <v>249</v>
       </c>
       <c r="E49">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F49" t="s">
         <v>272</v>
@@ -16476,7 +16477,7 @@
         <v>280</v>
       </c>
       <c r="I49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J49" t="s">
         <v>289</v>
@@ -16485,28 +16486,28 @@
         <v>431</v>
       </c>
       <c r="L49">
-        <v>-60.06249895962802</v>
+        <v>-70.99745359874908</v>
       </c>
       <c r="M49">
-        <v>179.3125867843628</v>
+        <v>143.5427814722061</v>
       </c>
       <c r="N49">
-        <v>0.03091482818126678</v>
+        <v>0.02972636185586452</v>
       </c>
       <c r="O49">
-        <v>8.977125485722471</v>
+        <v>7.980095535314167</v>
       </c>
       <c r="P49">
-        <v>3.081235596616698</v>
+        <v>3.097633674043886</v>
       </c>
       <c r="Q49">
-        <v>0.01319999999999999</v>
+        <v>0.03113999999999994</v>
       </c>
       <c r="R49">
-        <v>0.1577586206896553</v>
+        <v>0.09055555555555556</v>
       </c>
       <c r="S49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T49" t="s">
         <v>507</v>
@@ -16535,7 +16536,7 @@
         <v>250</v>
       </c>
       <c r="E50">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F50" t="s">
         <v>272</v>
@@ -16547,7 +16548,7 @@
         <v>280</v>
       </c>
       <c r="I50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J50" t="s">
         <v>289</v>
@@ -16556,28 +16557,28 @@
         <v>432</v>
       </c>
       <c r="L50">
-        <v>-70.99745359874908</v>
+        <v>-60.06249895962802</v>
       </c>
       <c r="M50">
-        <v>143.5427814722061</v>
+        <v>179.3125867843628</v>
       </c>
       <c r="N50">
-        <v>0.02972636185586452</v>
+        <v>0.03091482818126678</v>
       </c>
       <c r="O50">
-        <v>7.980095535314167</v>
+        <v>8.977125485722471</v>
       </c>
       <c r="P50">
-        <v>3.097633674043886</v>
+        <v>3.081235596616698</v>
       </c>
       <c r="Q50">
-        <v>0.03113999999999994</v>
+        <v>0.01319999999999999</v>
       </c>
       <c r="R50">
-        <v>0.09055555555555556</v>
+        <v>0.1577586206896553</v>
       </c>
       <c r="S50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T50" t="s">
         <v>507</v>
@@ -16606,7 +16607,7 @@
         <v>252</v>
       </c>
       <c r="E51">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F51" t="s">
         <v>272</v>
@@ -16621,34 +16622,34 @@
         <v>282</v>
       </c>
       <c r="J51" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K51" t="s">
         <v>434</v>
       </c>
       <c r="L51">
-        <v>-68.22841505570845</v>
+        <v>-68.89998703002929</v>
       </c>
       <c r="M51">
-        <v>141.062542796135</v>
+        <v>122.0312863588333</v>
       </c>
       <c r="N51">
-        <v>0.1655260622501373</v>
+        <v>0.2529853284358978</v>
       </c>
       <c r="O51">
-        <v>20.71353893552147</v>
+        <v>17.68139665633804</v>
       </c>
       <c r="P51">
-        <v>4.848517079441168</v>
+        <v>5.067811770776387</v>
       </c>
       <c r="Q51">
-        <v>0.05506</v>
+        <v>0.05164000000000002</v>
       </c>
       <c r="R51">
-        <v>0.1094827586206896</v>
+        <v>0.135</v>
       </c>
       <c r="S51" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="T51" t="s">
         <v>507</v>
@@ -16677,7 +16678,7 @@
         <v>253</v>
       </c>
       <c r="E52">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F52" t="s">
         <v>272</v>
@@ -16692,34 +16693,34 @@
         <v>282</v>
       </c>
       <c r="J52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K52" t="s">
         <v>435</v>
       </c>
       <c r="L52">
-        <v>-68.89998703002929</v>
+        <v>-68.22841505570845</v>
       </c>
       <c r="M52">
-        <v>122.0312863588333</v>
+        <v>141.062542796135</v>
       </c>
       <c r="N52">
-        <v>0.2529853284358978</v>
+        <v>0.1655260622501373</v>
       </c>
       <c r="O52">
-        <v>17.68139665633804</v>
+        <v>20.71353893552147</v>
       </c>
       <c r="P52">
-        <v>5.067811770776387</v>
+        <v>4.848517079441168</v>
       </c>
       <c r="Q52">
-        <v>0.05164000000000002</v>
+        <v>0.05506</v>
       </c>
       <c r="R52">
-        <v>0.135</v>
+        <v>0.1094827586206896</v>
       </c>
       <c r="S52" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="T52" t="s">
         <v>507</v>
@@ -16911,28 +16912,28 @@
         <v>438</v>
       </c>
       <c r="L55">
-        <v>-69.80312728881836</v>
+        <v>-64.20182952880859</v>
       </c>
       <c r="M55">
-        <v>155.3124636411667</v>
+        <v>131.2501132488251</v>
       </c>
       <c r="N55">
-        <v>0.2057251185178757</v>
+        <v>0.1014374941587448</v>
       </c>
       <c r="O55">
-        <v>14.55421937959071</v>
+        <v>14.86542542379796</v>
       </c>
       <c r="P55">
-        <v>3.204645173872949</v>
+        <v>4.4780535929103</v>
       </c>
       <c r="Q55">
-        <v>0.03099999999999992</v>
+        <v>0.05277999999999994</v>
       </c>
       <c r="R55">
-        <v>0.3053863195790639</v>
+        <v>0.1250000000000001</v>
       </c>
       <c r="S55" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="T55" t="s">
         <v>507</v>
@@ -16982,25 +16983,25 @@
         <v>439</v>
       </c>
       <c r="L56">
-        <v>-64.20182952880859</v>
+        <v>-67.49581146240234</v>
       </c>
       <c r="M56">
-        <v>131.2501132488251</v>
+        <v>105.8125272393227</v>
       </c>
       <c r="N56">
-        <v>0.1014374941587448</v>
+        <v>0.1971761435270309</v>
       </c>
       <c r="O56">
-        <v>14.86542542379796</v>
+        <v>14.90652548802275</v>
       </c>
       <c r="P56">
-        <v>4.4780535929103</v>
+        <v>5.490276016892333</v>
       </c>
       <c r="Q56">
-        <v>0.05277999999999994</v>
+        <v>0.04189999999999994</v>
       </c>
       <c r="R56">
-        <v>0.1250000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="S56" t="s">
         <v>462</v>
@@ -17053,28 +17054,28 @@
         <v>440</v>
       </c>
       <c r="L57">
-        <v>-67.49581146240234</v>
+        <v>-69.80312728881836</v>
       </c>
       <c r="M57">
-        <v>105.8125272393227</v>
+        <v>155.3124636411667</v>
       </c>
       <c r="N57">
-        <v>0.1971761435270309</v>
+        <v>0.2057251185178757</v>
       </c>
       <c r="O57">
-        <v>14.90652548802275</v>
+        <v>14.55421937959071</v>
       </c>
       <c r="P57">
-        <v>5.490276016892333</v>
+        <v>3.204645173872949</v>
       </c>
       <c r="Q57">
-        <v>0.04189999999999994</v>
+        <v>0.03099999999999992</v>
       </c>
       <c r="R57">
-        <v>0.105</v>
+        <v>0.3053863195790639</v>
       </c>
       <c r="S57" t="s">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="T57" t="s">
         <v>507</v>
@@ -17103,10 +17104,10 @@
         <v>259</v>
       </c>
       <c r="E58">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="F58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G58" t="s">
         <v>278</v>
@@ -17118,34 +17119,34 @@
         <v>282</v>
       </c>
       <c r="J58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K58" t="s">
         <v>441</v>
       </c>
       <c r="L58">
-        <v>-60.08694943514738</v>
+        <v>-77.5438949584961</v>
       </c>
       <c r="M58">
-        <v>125.4062503576279</v>
+        <v>84.90634709596634</v>
       </c>
       <c r="N58">
-        <v>0.2124445587396621</v>
+        <v>0.02283207513391972</v>
       </c>
       <c r="O58">
-        <v>16.11699784223395</v>
+        <v>10.58478836404839</v>
       </c>
       <c r="P58">
-        <v>3.802811215208093</v>
+        <v>4.669442308770148</v>
       </c>
       <c r="Q58">
-        <v>0.05421999999999993</v>
+        <v>0.08185999999999992</v>
       </c>
       <c r="R58">
-        <v>0.146551724137931</v>
+        <v>0.15</v>
       </c>
       <c r="S58" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="T58" t="s">
         <v>507</v>
@@ -17154,7 +17155,7 @@
         <v>508</v>
       </c>
       <c r="V58" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="W58" t="s">
         <v>525</v>
@@ -17174,10 +17175,10 @@
         <v>261</v>
       </c>
       <c r="E59">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="F59" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G59" t="s">
         <v>278</v>
@@ -17189,34 +17190,34 @@
         <v>282</v>
       </c>
       <c r="J59" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K59" t="s">
         <v>443</v>
       </c>
       <c r="L59">
-        <v>-77.5438949584961</v>
+        <v>-60.08694943514738</v>
       </c>
       <c r="M59">
-        <v>84.90634709596634</v>
+        <v>125.4062503576279</v>
       </c>
       <c r="N59">
-        <v>0.02283207513391972</v>
+        <v>0.2124445587396621</v>
       </c>
       <c r="O59">
-        <v>10.58478836404839</v>
+        <v>16.11699784223395</v>
       </c>
       <c r="P59">
-        <v>4.669442308770148</v>
+        <v>3.802811215208093</v>
       </c>
       <c r="Q59">
-        <v>0.08185999999999992</v>
+        <v>0.05421999999999993</v>
       </c>
       <c r="R59">
-        <v>0.15</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="S59" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="T59" t="s">
         <v>507</v>
@@ -17225,7 +17226,7 @@
         <v>508</v>
       </c>
       <c r="V59" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="W59" t="s">
         <v>525</v>
@@ -17408,37 +17409,37 @@
         <v>446</v>
       </c>
       <c r="L62">
-        <v>-68.98751678466797</v>
+        <v>-70.13771640553193</v>
       </c>
       <c r="M62">
-        <v>95.78117728233336</v>
+        <v>231.6249907016754</v>
       </c>
       <c r="N62">
-        <v>0.3037847578525543</v>
+        <v>0.03269713744521141</v>
       </c>
       <c r="O62">
-        <v>13.6958637762721</v>
+        <v>29.22168900767441</v>
       </c>
       <c r="P62">
-        <v>3.521073328776704</v>
+        <v>2.408086057676418</v>
       </c>
       <c r="Q62">
-        <v>0.04543999999999992</v>
+        <v>0.03671999999999997</v>
       </c>
       <c r="R62">
-        <v>0.21</v>
+        <v>0.2314471243042671</v>
       </c>
       <c r="S62" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="T62" t="s">
         <v>507</v>
       </c>
       <c r="U62" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V62" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="W62" t="s">
         <v>524</v>
@@ -17479,37 +17480,37 @@
         <v>447</v>
       </c>
       <c r="L63">
-        <v>-70.13771640553193</v>
+        <v>-68.98751678466797</v>
       </c>
       <c r="M63">
-        <v>231.6249907016754</v>
+        <v>95.78117728233336</v>
       </c>
       <c r="N63">
-        <v>0.03269713744521141</v>
+        <v>0.3037847578525543</v>
       </c>
       <c r="O63">
-        <v>29.22168900767441</v>
+        <v>13.6958637762721</v>
       </c>
       <c r="P63">
-        <v>2.408086057676418</v>
+        <v>3.521073328776704</v>
       </c>
       <c r="Q63">
-        <v>0.03671999999999997</v>
+        <v>0.04543999999999992</v>
       </c>
       <c r="R63">
-        <v>0.2314471243042671</v>
+        <v>0.21</v>
       </c>
       <c r="S63" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="T63" t="s">
         <v>507</v>
       </c>
       <c r="U63" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V63" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="W63" t="s">
         <v>524</v>
@@ -18394,7 +18395,7 @@
         <v>131</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="F8" t="s">
         <v>272</v>
@@ -18415,28 +18416,28 @@
         <v>313</v>
       </c>
       <c r="L8">
-        <v>-64.20649303089489</v>
+        <v>-62.21947892506918</v>
       </c>
       <c r="M8">
-        <v>42.33172535896301</v>
+        <v>62.34371289610863</v>
       </c>
       <c r="N8">
-        <v>0.08401427417993547</v>
+        <v>0.1298631429672241</v>
       </c>
       <c r="O8">
-        <v>7.476996633897167</v>
+        <v>16.74166543576459</v>
       </c>
       <c r="P8">
-        <v>3.245649297918578</v>
+        <v>3.490307126826965</v>
       </c>
       <c r="Q8">
-        <v>0.03925999999999996</v>
+        <v>0.04762</v>
       </c>
       <c r="R8">
-        <v>0.2000000000000004</v>
+        <v>0.1042553191489362</v>
       </c>
       <c r="S8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="T8" t="s">
         <v>507</v>
@@ -18486,28 +18487,28 @@
         <v>315</v>
       </c>
       <c r="L9">
-        <v>-62.21947892506918</v>
+        <v>-73.84854253133138</v>
       </c>
       <c r="M9">
-        <v>62.34371289610863</v>
+        <v>82.71873742341995</v>
       </c>
       <c r="N9">
-        <v>0.1298631429672241</v>
+        <v>0.1530129164457321</v>
       </c>
       <c r="O9">
-        <v>16.74166543576459</v>
+        <v>13.88289603231897</v>
       </c>
       <c r="P9">
-        <v>3.490307126826965</v>
+        <v>3.464848972909014</v>
       </c>
       <c r="Q9">
-        <v>0.04762</v>
+        <v>0.04457999999999995</v>
       </c>
       <c r="R9">
-        <v>0.1042553191489362</v>
+        <v>0.0557692307692308</v>
       </c>
       <c r="S9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="T9" t="s">
         <v>507</v>
@@ -18536,7 +18537,7 @@
         <v>134</v>
       </c>
       <c r="E10">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>272</v>
@@ -18557,25 +18558,25 @@
         <v>316</v>
       </c>
       <c r="L10">
-        <v>-73.84854253133138</v>
+        <v>-64.20649303089489</v>
       </c>
       <c r="M10">
-        <v>82.71873742341995</v>
+        <v>42.33172535896301</v>
       </c>
       <c r="N10">
-        <v>0.1530129164457321</v>
+        <v>0.08401427417993547</v>
       </c>
       <c r="O10">
-        <v>13.88289603231897</v>
+        <v>7.476996633897167</v>
       </c>
       <c r="P10">
-        <v>3.464848972909014</v>
+        <v>3.245649297918578</v>
       </c>
       <c r="Q10">
-        <v>0.04457999999999995</v>
+        <v>0.03925999999999996</v>
       </c>
       <c r="R10">
-        <v>0.0557692307692308</v>
+        <v>0.2000000000000004</v>
       </c>
       <c r="S10" t="s">
         <v>465</v>
@@ -18737,7 +18738,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -18746,7 +18747,7 @@
         <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13">
         <v>3000</v>
@@ -18767,7 +18768,7 @@
         <v>289</v>
       </c>
       <c r="K13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L13">
         <v>-74.58181762695312</v>
@@ -19033,7 +19034,7 @@
         <v>170</v>
       </c>
       <c r="E17">
-        <v>2.5</v>
+        <v>2000</v>
       </c>
       <c r="F17" t="s">
         <v>272</v>
@@ -19048,34 +19049,34 @@
         <v>283</v>
       </c>
       <c r="J17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K17" t="s">
         <v>352</v>
       </c>
       <c r="L17">
-        <v>-70.28225649320164</v>
+        <v>-65.84584045410156</v>
       </c>
       <c r="M17">
-        <v>99.3124023079872</v>
+        <v>300.1562654972076</v>
       </c>
       <c r="N17">
-        <v>0.05842895805835724</v>
+        <v>0.02006839029490948</v>
       </c>
       <c r="O17">
-        <v>6.074618423485317</v>
+        <v>24.02226112141639</v>
       </c>
       <c r="P17">
-        <v>1.258000087169142</v>
+        <v>2.824989958567775</v>
       </c>
       <c r="Q17">
-        <v>0.01249999999999996</v>
+        <v>0.03108</v>
       </c>
       <c r="R17">
-        <v>0.8369863013698634</v>
+        <v>0.3303684879288438</v>
       </c>
       <c r="S17" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="T17" t="s">
         <v>507</v>
@@ -19084,7 +19085,7 @@
         <v>509</v>
       </c>
       <c r="V17" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="W17" t="s">
         <v>525</v>
@@ -19104,7 +19105,7 @@
         <v>171</v>
       </c>
       <c r="E18">
-        <v>2000</v>
+        <v>2.5</v>
       </c>
       <c r="F18" t="s">
         <v>272</v>
@@ -19119,34 +19120,34 @@
         <v>283</v>
       </c>
       <c r="J18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K18" t="s">
         <v>353</v>
       </c>
       <c r="L18">
-        <v>-65.84584045410156</v>
+        <v>-70.28225649320164</v>
       </c>
       <c r="M18">
-        <v>300.1562654972076</v>
+        <v>99.3124023079872</v>
       </c>
       <c r="N18">
-        <v>0.02006839029490948</v>
+        <v>0.05842895805835724</v>
       </c>
       <c r="O18">
-        <v>24.02226112141639</v>
+        <v>6.074618423485317</v>
       </c>
       <c r="P18">
-        <v>2.824989958567775</v>
+        <v>1.258000087169142</v>
       </c>
       <c r="Q18">
-        <v>0.03108</v>
+        <v>0.01249999999999996</v>
       </c>
       <c r="R18">
-        <v>0.3303684879288438</v>
+        <v>0.8369863013698634</v>
       </c>
       <c r="S18" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="T18" t="s">
         <v>507</v>
@@ -19155,7 +19156,7 @@
         <v>509</v>
       </c>
       <c r="V18" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="W18" t="s">
         <v>525</v>
@@ -19163,7 +19164,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -19172,10 +19173,10 @@
         <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F19" t="s">
         <v>272</v>
@@ -19193,31 +19194,31 @@
         <v>290</v>
       </c>
       <c r="K19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L19">
-        <v>-60.5941987471147</v>
+        <v>-71.36082331339519</v>
       </c>
       <c r="M19">
-        <v>94.27888691425323</v>
+        <v>112.5936880707741</v>
       </c>
       <c r="N19">
-        <v>0.1743022054433823</v>
+        <v>0.14601930975914</v>
       </c>
       <c r="O19">
-        <v>18.86579495770978</v>
+        <v>15.5167310721922</v>
       </c>
       <c r="P19">
-        <v>2.816188789806582</v>
+        <v>3.271508682379974</v>
       </c>
       <c r="Q19">
-        <v>0.04993999999999998</v>
+        <v>0.05940000000000002</v>
       </c>
       <c r="R19">
-        <v>0.1400000000000001</v>
+        <v>0.197872340425532</v>
       </c>
       <c r="S19" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="T19" t="s">
         <v>507</v>
@@ -19234,7 +19235,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -19243,10 +19244,10 @@
         <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E20">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F20" t="s">
         <v>272</v>
@@ -19264,31 +19265,31 @@
         <v>290</v>
       </c>
       <c r="K20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L20">
-        <v>-71.36082331339519</v>
+        <v>-60.5941987471147</v>
       </c>
       <c r="M20">
-        <v>112.5936880707741</v>
+        <v>94.27888691425323</v>
       </c>
       <c r="N20">
-        <v>0.14601930975914</v>
+        <v>0.1743022054433823</v>
       </c>
       <c r="O20">
-        <v>15.5167310721922</v>
+        <v>18.86579495770978</v>
       </c>
       <c r="P20">
-        <v>3.271508682379974</v>
+        <v>2.816188789806582</v>
       </c>
       <c r="Q20">
-        <v>0.05940000000000002</v>
+        <v>0.04993999999999998</v>
       </c>
       <c r="R20">
-        <v>0.197872340425532</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="S20" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="T20" t="s">
         <v>507</v>
@@ -19501,7 +19502,7 @@
         <v>0.1353495290034706</v>
       </c>
       <c r="S23" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T23" t="s">
         <v>507</v>
@@ -19530,7 +19531,7 @@
         <v>202</v>
       </c>
       <c r="E24">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
         <v>272</v>
@@ -19545,43 +19546,43 @@
         <v>283</v>
       </c>
       <c r="J24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K24" t="s">
         <v>384</v>
       </c>
       <c r="L24">
-        <v>-70.41262588500976</v>
+        <v>-70.68240465436664</v>
       </c>
       <c r="M24">
-        <v>56.25003948807717</v>
+        <v>98.95218163728714</v>
       </c>
       <c r="N24">
-        <v>0.1191399022936821</v>
+        <v>0.03445490449666977</v>
       </c>
       <c r="O24">
-        <v>4.986404548750552</v>
+        <v>13.37509737897112</v>
       </c>
       <c r="P24">
-        <v>1.404671200521333</v>
+        <v>3.653981498587273</v>
       </c>
       <c r="Q24">
-        <v>0.03135999999999994</v>
+        <v>0.03633999999999993</v>
       </c>
       <c r="R24">
-        <v>0.5749999999999992</v>
+        <v>0.1687499999999999</v>
       </c>
       <c r="S24" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="T24" t="s">
         <v>507</v>
       </c>
       <c r="U24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V24" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="W24" t="s">
         <v>524</v>
@@ -19601,7 +19602,7 @@
         <v>203</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F25" t="s">
         <v>272</v>
@@ -19616,43 +19617,43 @@
         <v>283</v>
       </c>
       <c r="J25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K25" t="s">
         <v>385</v>
       </c>
       <c r="L25">
-        <v>-70.68240465436664</v>
+        <v>-70.41262588500976</v>
       </c>
       <c r="M25">
-        <v>98.95218163728714</v>
+        <v>56.25003948807717</v>
       </c>
       <c r="N25">
-        <v>0.03445490449666977</v>
+        <v>0.1191399022936821</v>
       </c>
       <c r="O25">
-        <v>13.37509737897112</v>
+        <v>4.986404548750552</v>
       </c>
       <c r="P25">
-        <v>3.653981498587273</v>
+        <v>1.404671200521333</v>
       </c>
       <c r="Q25">
-        <v>0.03633999999999993</v>
+        <v>0.03135999999999994</v>
       </c>
       <c r="R25">
-        <v>0.1687499999999999</v>
+        <v>0.5749999999999992</v>
       </c>
       <c r="S25" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="T25" t="s">
         <v>507</v>
       </c>
       <c r="U25" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V25" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="W25" t="s">
         <v>524</v>
@@ -19886,7 +19887,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -19895,7 +19896,7 @@
         <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3">
         <v>5000</v>
@@ -19916,7 +19917,7 @@
         <v>290</v>
       </c>
       <c r="K3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L3">
         <v>-69.17314453125</v>
@@ -20040,7 +20041,7 @@
         <v>188</v>
       </c>
       <c r="E5">
-        <v>6.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F5" t="s">
         <v>272</v>
@@ -20061,28 +20062,28 @@
         <v>370</v>
       </c>
       <c r="L5">
-        <v>-79.04284785344051</v>
+        <v>-77.15321578979494</v>
       </c>
       <c r="M5">
-        <v>111.0937893390656</v>
+        <v>95.18756717443466</v>
       </c>
       <c r="N5">
-        <v>0.04167670011520386</v>
+        <v>0.2049178034067154</v>
       </c>
       <c r="O5">
-        <v>16.01273970209763</v>
+        <v>16.12745443276978</v>
       </c>
       <c r="P5">
-        <v>4.163554319995317</v>
+        <v>3.437512960798568</v>
       </c>
       <c r="Q5">
-        <v>0.06087999999999993</v>
+        <v>0.05049999999999999</v>
       </c>
       <c r="R5">
-        <v>0.1937500000000002</v>
+        <v>0.12</v>
       </c>
       <c r="S5" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="T5" t="s">
         <v>507</v>
@@ -20091,7 +20092,7 @@
         <v>508</v>
       </c>
       <c r="V5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W5" t="s">
         <v>525</v>
@@ -20111,7 +20112,7 @@
         <v>189</v>
       </c>
       <c r="E6">
-        <v>8.699999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="F6" t="s">
         <v>272</v>
@@ -20132,28 +20133,28 @@
         <v>371</v>
       </c>
       <c r="L6">
-        <v>-77.15321578979494</v>
+        <v>-79.04284785344051</v>
       </c>
       <c r="M6">
-        <v>95.18756717443466</v>
+        <v>111.0937893390656</v>
       </c>
       <c r="N6">
-        <v>0.2049178034067154</v>
+        <v>0.04167670011520386</v>
       </c>
       <c r="O6">
-        <v>16.12745443276978</v>
+        <v>16.01273970209763</v>
       </c>
       <c r="P6">
-        <v>3.437512960798568</v>
+        <v>4.163554319995317</v>
       </c>
       <c r="Q6">
-        <v>0.05049999999999999</v>
+        <v>0.06087999999999993</v>
       </c>
       <c r="R6">
-        <v>0.12</v>
+        <v>0.1937500000000002</v>
       </c>
       <c r="S6" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="T6" t="s">
         <v>507</v>
@@ -20162,7 +20163,7 @@
         <v>508</v>
       </c>
       <c r="V6" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="W6" t="s">
         <v>525</v>
@@ -20170,7 +20171,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -20179,7 +20180,7 @@
         <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7">
         <v>2000</v>
@@ -20200,7 +20201,7 @@
         <v>289</v>
       </c>
       <c r="K7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L7">
         <v>-74.04762649536133</v>
@@ -20241,7 +20242,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -20250,7 +20251,7 @@
         <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E8">
         <v>4000</v>
@@ -20271,7 +20272,7 @@
         <v>289</v>
       </c>
       <c r="K8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L8">
         <v>-74.50958633422852</v>
@@ -20454,7 +20455,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -20463,7 +20464,7 @@
         <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E11">
         <v>1500</v>
@@ -20484,10 +20485,10 @@
         <v>289</v>
       </c>
       <c r="K11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T11" t="s">
         <v>507</v>
@@ -20717,7 +20718,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
         <v>91</v>
@@ -20726,7 +20727,7 @@
         <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E15">
         <v>2500</v>
@@ -20747,7 +20748,7 @@
         <v>290</v>
       </c>
       <c r="K15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L15">
         <v>-83.26625595092773</v>
@@ -21064,7 +21065,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -21073,7 +21074,7 @@
         <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -21094,7 +21095,7 @@
         <v>292</v>
       </c>
       <c r="K3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L3">
         <v>-68.57379267765926</v>
@@ -21135,7 +21136,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -21144,7 +21145,7 @@
         <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E4">
         <v>1500</v>
@@ -21165,7 +21166,7 @@
         <v>292</v>
       </c>
       <c r="K4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L4">
         <v>-60.67748988758434</v>
@@ -21206,7 +21207,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -21215,7 +21216,7 @@
         <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>2000</v>
@@ -21236,7 +21237,7 @@
         <v>292</v>
       </c>
       <c r="K5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L5">
         <v>-74.09527206420898</v>
@@ -21260,7 +21261,7 @@
         <v>0.04500000000000003</v>
       </c>
       <c r="S5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T5" t="s">
         <v>507</v>
@@ -21277,7 +21278,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -21286,7 +21287,7 @@
         <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E6">
         <v>1500</v>
@@ -21307,7 +21308,7 @@
         <v>292</v>
       </c>
       <c r="K6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L6">
         <v>-74.36641693115234</v>
@@ -21331,7 +21332,7 @@
         <v>0.1396551724137932</v>
       </c>
       <c r="S6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T6" t="s">
         <v>507</v>
@@ -21561,7 +21562,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
         <v>91</v>
@@ -21570,7 +21571,7 @@
         <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E10">
         <v>590</v>
@@ -21591,7 +21592,7 @@
         <v>292</v>
       </c>
       <c r="K10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L10">
         <v>-73.03890927632648</v>
@@ -21870,7 +21871,7 @@
         <v>126</v>
       </c>
       <c r="E3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F3" t="s">
         <v>272</v>
@@ -21890,29 +21891,8 @@
       <c r="K3" t="s">
         <v>308</v>
       </c>
-      <c r="L3">
-        <v>-69.40328025817871</v>
-      </c>
-      <c r="M3">
-        <v>63.906230032444</v>
-      </c>
-      <c r="N3">
-        <v>0.1683371961116791</v>
-      </c>
-      <c r="O3">
-        <v>17.45877193666746</v>
-      </c>
-      <c r="P3">
-        <v>3.42102386288433</v>
-      </c>
-      <c r="Q3">
-        <v>0.05637999999999999</v>
-      </c>
-      <c r="R3">
-        <v>0.07999999999999995</v>
-      </c>
       <c r="S3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="T3" t="s">
         <v>507</v>
@@ -21921,7 +21901,7 @@
         <v>508</v>
       </c>
       <c r="V3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W3" t="s">
         <v>523</v>
@@ -21941,7 +21921,7 @@
         <v>128</v>
       </c>
       <c r="E4">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F4" t="s">
         <v>272</v>
@@ -21961,8 +21941,29 @@
       <c r="K4" t="s">
         <v>310</v>
       </c>
+      <c r="L4">
+        <v>-69.40328025817871</v>
+      </c>
+      <c r="M4">
+        <v>63.906230032444</v>
+      </c>
+      <c r="N4">
+        <v>0.1683371961116791</v>
+      </c>
+      <c r="O4">
+        <v>17.45877193666746</v>
+      </c>
+      <c r="P4">
+        <v>3.42102386288433</v>
+      </c>
+      <c r="Q4">
+        <v>0.05637999999999999</v>
+      </c>
+      <c r="R4">
+        <v>0.07999999999999995</v>
+      </c>
       <c r="S4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="T4" t="s">
         <v>507</v>
@@ -21971,7 +21972,7 @@
         <v>508</v>
       </c>
       <c r="V4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="W4" t="s">
         <v>523</v>
@@ -22121,7 +22122,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
@@ -22130,7 +22131,7 @@
         <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E7">
         <v>3000</v>
@@ -22151,7 +22152,7 @@
         <v>289</v>
       </c>
       <c r="K7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L7">
         <v>-73.24457380506728</v>
@@ -22204,7 +22205,7 @@
         <v>146</v>
       </c>
       <c r="E8">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F8" t="s">
         <v>272</v>
@@ -22225,37 +22226,37 @@
         <v>328</v>
       </c>
       <c r="L8">
-        <v>-66.67499542236328</v>
+        <v>-73.48819961547852</v>
       </c>
       <c r="M8">
-        <v>58.5625059902668</v>
+        <v>115.5000329017639</v>
       </c>
       <c r="N8">
-        <v>0.1770512312650681</v>
+        <v>0.05702433362603188</v>
       </c>
       <c r="O8">
-        <v>13.58776333327424</v>
+        <v>6.348978920730441</v>
       </c>
       <c r="P8">
-        <v>3.060930124750145</v>
+        <v>1.33294721186336</v>
       </c>
       <c r="Q8">
-        <v>0.04239999999999999</v>
+        <v>0.008959999999999968</v>
       </c>
       <c r="R8">
-        <v>0.1168224299065419</v>
+        <v>0.8429906542056069</v>
       </c>
       <c r="S8" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="T8" t="s">
         <v>507</v>
       </c>
       <c r="U8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="W8" t="s">
         <v>524</v>
@@ -22275,7 +22276,7 @@
         <v>147</v>
       </c>
       <c r="E9">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F9" t="s">
         <v>272</v>
@@ -22296,37 +22297,37 @@
         <v>329</v>
       </c>
       <c r="L9">
-        <v>-73.48819961547852</v>
+        <v>-66.67499542236328</v>
       </c>
       <c r="M9">
-        <v>115.5000329017639</v>
+        <v>58.5625059902668</v>
       </c>
       <c r="N9">
-        <v>0.05702433362603188</v>
+        <v>0.1770512312650681</v>
       </c>
       <c r="O9">
-        <v>6.348978920730441</v>
+        <v>13.58776333327424</v>
       </c>
       <c r="P9">
-        <v>1.33294721186336</v>
+        <v>3.060930124750145</v>
       </c>
       <c r="Q9">
-        <v>0.008959999999999968</v>
+        <v>0.04239999999999999</v>
       </c>
       <c r="R9">
-        <v>0.8429906542056069</v>
+        <v>0.1168224299065419</v>
       </c>
       <c r="S9" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="T9" t="s">
         <v>507</v>
       </c>
       <c r="U9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W9" t="s">
         <v>524</v>
@@ -22630,7 +22631,7 @@
         <v>163</v>
       </c>
       <c r="E14">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
         <v>272</v>
@@ -22645,34 +22646,34 @@
         <v>284</v>
       </c>
       <c r="J14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K14" t="s">
         <v>345</v>
       </c>
       <c r="L14">
-        <v>-68.60573023015803</v>
+        <v>-75.30872497558593</v>
       </c>
       <c r="M14">
-        <v>107.9999506473541</v>
+        <v>125.5311965942383</v>
       </c>
       <c r="N14">
-        <v>0.01382383424788714</v>
+        <v>0.0643904060125351</v>
       </c>
       <c r="O14">
-        <v>25.51806561340071</v>
+        <v>24.96257516143061</v>
       </c>
       <c r="P14">
-        <v>4.786922978278009</v>
+        <v>3.958761888582859</v>
       </c>
       <c r="Q14">
-        <v>0.1036199999999999</v>
+        <v>0.08501999999999997</v>
       </c>
       <c r="R14">
-        <v>0.1200000000000001</v>
+        <v>0.1350000000000001</v>
       </c>
       <c r="S14" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="T14" t="s">
         <v>507</v>
@@ -22681,7 +22682,7 @@
         <v>508</v>
       </c>
       <c r="V14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="W14" t="s">
         <v>524</v>
@@ -22701,7 +22702,7 @@
         <v>164</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="F15" t="s">
         <v>272</v>
@@ -22716,34 +22717,34 @@
         <v>284</v>
       </c>
       <c r="J15" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K15" t="s">
         <v>346</v>
       </c>
       <c r="L15">
-        <v>-75.30872497558593</v>
+        <v>-68.60573023015803</v>
       </c>
       <c r="M15">
-        <v>125.5311965942383</v>
+        <v>107.9999506473541</v>
       </c>
       <c r="N15">
-        <v>0.0643904060125351</v>
+        <v>0.01382383424788714</v>
       </c>
       <c r="O15">
-        <v>24.96257516143061</v>
+        <v>25.51806561340071</v>
       </c>
       <c r="P15">
-        <v>3.958761888582859</v>
+        <v>4.786922978278009</v>
       </c>
       <c r="Q15">
-        <v>0.08501999999999997</v>
+        <v>0.1036199999999999</v>
       </c>
       <c r="R15">
-        <v>0.1350000000000001</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="S15" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="T15" t="s">
         <v>507</v>
@@ -22752,7 +22753,7 @@
         <v>508</v>
       </c>
       <c r="V15" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="W15" t="s">
         <v>524</v>
@@ -22902,7 +22903,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
@@ -22911,7 +22912,7 @@
         <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -22932,7 +22933,7 @@
         <v>290</v>
       </c>
       <c r="K18" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L18">
         <v>-64.59052085876465</v>
@@ -23044,7 +23045,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
@@ -23053,7 +23054,7 @@
         <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E20">
         <v>1500</v>
@@ -23074,7 +23075,7 @@
         <v>290</v>
       </c>
       <c r="K20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S20" t="s">
         <v>457</v>
@@ -23378,7 +23379,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -23387,7 +23388,7 @@
         <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E25">
         <v>3000</v>
@@ -23408,7 +23409,7 @@
         <v>289</v>
       </c>
       <c r="K25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L25">
         <v>-76.79246317545572</v>
@@ -23515,6 +23516,1226 @@
         <v>515</v>
       </c>
       <c r="W26" t="s">
+        <v>525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L2">
+        <v>-79.96540178571429</v>
+      </c>
+      <c r="M2">
+        <v>157.6201766729355</v>
+      </c>
+      <c r="N2">
+        <v>0.04916183650493622</v>
+      </c>
+      <c r="O2">
+        <v>17.74366793026194</v>
+      </c>
+      <c r="P2">
+        <v>3.570083104537826</v>
+      </c>
+      <c r="Q2">
+        <v>0.03659999999999997</v>
+      </c>
+      <c r="R2">
+        <v>0.01499999999999999</v>
+      </c>
+      <c r="S2" t="s">
+        <v>489</v>
+      </c>
+      <c r="T2" t="s">
+        <v>507</v>
+      </c>
+      <c r="U2" t="s">
+        <v>508</v>
+      </c>
+      <c r="V2" t="s">
+        <v>515</v>
+      </c>
+      <c r="W2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" t="s">
+        <v>288</v>
+      </c>
+      <c r="J3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K3" t="s">
+        <v>394</v>
+      </c>
+      <c r="L3">
+        <v>-77.5150874744762</v>
+      </c>
+      <c r="M3">
+        <v>135.1562440395355</v>
+      </c>
+      <c r="N3">
+        <v>0.07528121769428253</v>
+      </c>
+      <c r="O3">
+        <v>22.84217346664942</v>
+      </c>
+      <c r="P3">
+        <v>3.589581210465552</v>
+      </c>
+      <c r="Q3">
+        <v>0.05683999999999999</v>
+      </c>
+      <c r="R3">
+        <v>0.0793103448275862</v>
+      </c>
+      <c r="S3" t="s">
+        <v>489</v>
+      </c>
+      <c r="T3" t="s">
+        <v>507</v>
+      </c>
+      <c r="U3" t="s">
+        <v>508</v>
+      </c>
+      <c r="V3" t="s">
+        <v>515</v>
+      </c>
+      <c r="W3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4">
+        <v>4000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J4" t="s">
+        <v>289</v>
+      </c>
+      <c r="K4" t="s">
+        <v>395</v>
+      </c>
+      <c r="L4">
+        <v>-78.69149703979492</v>
+      </c>
+      <c r="M4">
+        <v>132.1562975645065</v>
+      </c>
+      <c r="N4">
+        <v>0.06822966039180756</v>
+      </c>
+      <c r="O4">
+        <v>17.36442950363113</v>
+      </c>
+      <c r="P4">
+        <v>3.508181566510717</v>
+      </c>
+      <c r="Q4">
+        <v>0.05781999999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.145</v>
+      </c>
+      <c r="S4" t="s">
+        <v>489</v>
+      </c>
+      <c r="T4" t="s">
+        <v>507</v>
+      </c>
+      <c r="U4" t="s">
+        <v>508</v>
+      </c>
+      <c r="V4" t="s">
+        <v>515</v>
+      </c>
+      <c r="W4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5">
+        <v>3500</v>
+      </c>
+      <c r="F5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" t="s">
+        <v>288</v>
+      </c>
+      <c r="J5" t="s">
+        <v>290</v>
+      </c>
+      <c r="K5" t="s">
+        <v>396</v>
+      </c>
+      <c r="L5">
+        <v>-73.79342727661133</v>
+      </c>
+      <c r="M5">
+        <v>124.8125433921814</v>
+      </c>
+      <c r="N5">
+        <v>0.2452678829431534</v>
+      </c>
+      <c r="O5">
+        <v>16.91654419383897</v>
+      </c>
+      <c r="P5">
+        <v>3.653898740516449</v>
+      </c>
+      <c r="Q5">
+        <v>0.04711999999999994</v>
+      </c>
+      <c r="R5">
+        <v>0.1600000000000001</v>
+      </c>
+      <c r="S5" t="s">
+        <v>457</v>
+      </c>
+      <c r="T5" t="s">
+        <v>507</v>
+      </c>
+      <c r="U5" t="s">
+        <v>508</v>
+      </c>
+      <c r="V5" t="s">
+        <v>512</v>
+      </c>
+      <c r="W5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6">
+        <v>3800</v>
+      </c>
+      <c r="F6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K6" t="s">
+        <v>399</v>
+      </c>
+      <c r="L6">
+        <v>-69.68302774429321</v>
+      </c>
+      <c r="M6">
+        <v>230.1874756813049</v>
+      </c>
+      <c r="N6">
+        <v>0.142915815114975</v>
+      </c>
+      <c r="O6">
+        <v>25.3960848818044</v>
+      </c>
+      <c r="P6">
+        <v>3.520499592327257</v>
+      </c>
+      <c r="Q6">
+        <v>0.05257999999999996</v>
+      </c>
+      <c r="R6">
+        <v>0.2147212543554007</v>
+      </c>
+      <c r="S6" t="s">
+        <v>479</v>
+      </c>
+      <c r="T6" t="s">
+        <v>507</v>
+      </c>
+      <c r="U6" t="s">
+        <v>508</v>
+      </c>
+      <c r="V6" t="s">
+        <v>514</v>
+      </c>
+      <c r="W6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L7">
+        <v>-74.32496871948244</v>
+      </c>
+      <c r="M7">
+        <v>93.03123503923416</v>
+      </c>
+      <c r="N7">
+        <v>0.01031132880598307</v>
+      </c>
+      <c r="O7">
+        <v>15.1831201919299</v>
+      </c>
+      <c r="P7">
+        <v>3.465240373078547</v>
+      </c>
+      <c r="Q7">
+        <v>0.04323999999999995</v>
+      </c>
+      <c r="R7">
+        <v>0.1308411214953271</v>
+      </c>
+      <c r="S7" t="s">
+        <v>489</v>
+      </c>
+      <c r="T7" t="s">
+        <v>507</v>
+      </c>
+      <c r="U7" t="s">
+        <v>508</v>
+      </c>
+      <c r="V7" t="s">
+        <v>515</v>
+      </c>
+      <c r="W7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="F8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J8" t="s">
+        <v>290</v>
+      </c>
+      <c r="K8" t="s">
+        <v>419</v>
+      </c>
+      <c r="L8">
+        <v>-59.74599151611328</v>
+      </c>
+      <c r="M8">
+        <v>160.9375029802323</v>
+      </c>
+      <c r="N8">
+        <v>0.04521901905536652</v>
+      </c>
+      <c r="O8">
+        <v>16.26660786597379</v>
+      </c>
+      <c r="P8">
+        <v>3.08866579341253</v>
+      </c>
+      <c r="Q8">
+        <v>0.02159999999999996</v>
+      </c>
+      <c r="R8">
+        <v>-1.81906028133625e-18</v>
+      </c>
+      <c r="S8" t="s">
+        <v>497</v>
+      </c>
+      <c r="T8" t="s">
+        <v>507</v>
+      </c>
+      <c r="U8" t="s">
+        <v>508</v>
+      </c>
+      <c r="V8" t="s">
+        <v>515</v>
+      </c>
+      <c r="W8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" t="s">
+        <v>280</v>
+      </c>
+      <c r="I9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J9" t="s">
+        <v>290</v>
+      </c>
+      <c r="K9" t="s">
+        <v>420</v>
+      </c>
+      <c r="L9">
+        <v>-74.21602325439453</v>
+      </c>
+      <c r="M9">
+        <v>139.2811983823776</v>
+      </c>
+      <c r="N9">
+        <v>0.03770983591675758</v>
+      </c>
+      <c r="O9">
+        <v>13.1513555913533</v>
+      </c>
+      <c r="P9">
+        <v>3.398852669231675</v>
+      </c>
+      <c r="Q9">
+        <v>0.05796000000000001</v>
+      </c>
+      <c r="R9">
+        <v>0.2050000000000002</v>
+      </c>
+      <c r="S9" t="s">
+        <v>489</v>
+      </c>
+      <c r="T9" t="s">
+        <v>507</v>
+      </c>
+      <c r="U9" t="s">
+        <v>508</v>
+      </c>
+      <c r="V9" t="s">
+        <v>515</v>
+      </c>
+      <c r="W9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10">
+        <v>4.4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" t="s">
+        <v>280</v>
+      </c>
+      <c r="I10" t="s">
+        <v>288</v>
+      </c>
+      <c r="J10" t="s">
+        <v>290</v>
+      </c>
+      <c r="K10" t="s">
+        <v>424</v>
+      </c>
+      <c r="L10">
+        <v>-65.00794665018718</v>
+      </c>
+      <c r="M10">
+        <v>159.3124717473984</v>
+      </c>
+      <c r="N10">
+        <v>0.1231189146637917</v>
+      </c>
+      <c r="O10">
+        <v>19.88054443692099</v>
+      </c>
+      <c r="P10">
+        <v>3.812805114465802</v>
+      </c>
+      <c r="Q10">
+        <v>0.03898000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.2173662361623616</v>
+      </c>
+      <c r="S10" t="s">
+        <v>493</v>
+      </c>
+      <c r="T10" t="s">
+        <v>507</v>
+      </c>
+      <c r="U10" t="s">
+        <v>508</v>
+      </c>
+      <c r="V10" t="s">
+        <v>512</v>
+      </c>
+      <c r="W10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11">
+        <v>1500</v>
+      </c>
+      <c r="F11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H11" t="s">
+        <v>280</v>
+      </c>
+      <c r="I11" t="s">
+        <v>288</v>
+      </c>
+      <c r="J11" t="s">
+        <v>293</v>
+      </c>
+      <c r="K11" t="s">
+        <v>425</v>
+      </c>
+      <c r="L11">
+        <v>-70.12287139892578</v>
+      </c>
+      <c r="M11">
+        <v>193.7187910079956</v>
+      </c>
+      <c r="N11">
+        <v>0.0873962938785553</v>
+      </c>
+      <c r="O11">
+        <v>28.68787061524333</v>
+      </c>
+      <c r="P11">
+        <v>3.384478949641605</v>
+      </c>
+      <c r="Q11">
+        <v>0.04215999999999998</v>
+      </c>
+      <c r="R11">
+        <v>0.1700000000000001</v>
+      </c>
+      <c r="S11" t="s">
+        <v>489</v>
+      </c>
+      <c r="T11" t="s">
+        <v>507</v>
+      </c>
+      <c r="U11" t="s">
+        <v>508</v>
+      </c>
+      <c r="V11" t="s">
+        <v>515</v>
+      </c>
+      <c r="W11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="1">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12">
+        <v>4000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J12" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" t="s">
+        <v>426</v>
+      </c>
+      <c r="L12">
+        <v>-71.17224884033203</v>
+      </c>
+      <c r="M12">
+        <v>205.9495002031326</v>
+      </c>
+      <c r="N12">
+        <v>0.1051946133375168</v>
+      </c>
+      <c r="O12">
+        <v>19.5255276605989</v>
+      </c>
+      <c r="P12">
+        <v>3.655178206037571</v>
+      </c>
+      <c r="Q12">
+        <v>0.02759999999999996</v>
+      </c>
+      <c r="R12">
+        <v>0.01682242990654206</v>
+      </c>
+      <c r="S12" t="s">
+        <v>489</v>
+      </c>
+      <c r="T12" t="s">
+        <v>507</v>
+      </c>
+      <c r="U12" t="s">
+        <v>508</v>
+      </c>
+      <c r="V12" t="s">
+        <v>515</v>
+      </c>
+      <c r="W12" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="1">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13">
+        <v>1100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" t="s">
+        <v>280</v>
+      </c>
+      <c r="I13" t="s">
+        <v>288</v>
+      </c>
+      <c r="J13" t="s">
+        <v>293</v>
+      </c>
+      <c r="K13" t="s">
+        <v>427</v>
+      </c>
+      <c r="L13">
+        <v>-59.5930077234904</v>
+      </c>
+      <c r="M13">
+        <v>255.4374933242798</v>
+      </c>
+      <c r="N13">
+        <v>0.02735374681651593</v>
+      </c>
+      <c r="O13">
+        <v>34.02871314317697</v>
+      </c>
+      <c r="P13">
+        <v>4.373670105094583</v>
+      </c>
+      <c r="Q13">
+        <v>0.04597999999999991</v>
+      </c>
+      <c r="R13">
+        <v>0.1802030456852793</v>
+      </c>
+      <c r="S13" t="s">
+        <v>491</v>
+      </c>
+      <c r="T13" t="s">
+        <v>507</v>
+      </c>
+      <c r="U13" t="s">
+        <v>508</v>
+      </c>
+      <c r="V13" t="s">
+        <v>515</v>
+      </c>
+      <c r="W13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="1">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14">
+        <v>1800</v>
+      </c>
+      <c r="F14" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" t="s">
+        <v>280</v>
+      </c>
+      <c r="I14" t="s">
+        <v>288</v>
+      </c>
+      <c r="J14" t="s">
+        <v>290</v>
+      </c>
+      <c r="K14" t="s">
+        <v>429</v>
+      </c>
+      <c r="L14">
+        <v>-75.44243352553424</v>
+      </c>
+      <c r="M14">
+        <v>157.9374670982361</v>
+      </c>
+      <c r="N14">
+        <v>0.02830692008137703</v>
+      </c>
+      <c r="O14">
+        <v>21.828856667898</v>
+      </c>
+      <c r="P14">
+        <v>3.581689663885334</v>
+      </c>
+      <c r="Q14">
+        <v>0.0575</v>
+      </c>
+      <c r="R14">
+        <v>0.08774997268058138</v>
+      </c>
+      <c r="S14" t="s">
+        <v>489</v>
+      </c>
+      <c r="T14" t="s">
+        <v>507</v>
+      </c>
+      <c r="U14" t="s">
+        <v>508</v>
+      </c>
+      <c r="V14" t="s">
+        <v>515</v>
+      </c>
+      <c r="W14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="1">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" t="s">
+        <v>276</v>
+      </c>
+      <c r="H15" t="s">
+        <v>280</v>
+      </c>
+      <c r="I15" t="s">
+        <v>288</v>
+      </c>
+      <c r="J15" t="s">
+        <v>290</v>
+      </c>
+      <c r="K15" t="s">
+        <v>430</v>
+      </c>
+      <c r="L15">
+        <v>-83.14263916015625</v>
+      </c>
+      <c r="M15">
+        <v>134.1875046491623</v>
+      </c>
+      <c r="N15">
+        <v>0.07950662821531296</v>
+      </c>
+      <c r="O15">
+        <v>22.28657004570821</v>
+      </c>
+      <c r="P15">
+        <v>3.597190658051052</v>
+      </c>
+      <c r="Q15">
+        <v>0.05321999999999994</v>
+      </c>
+      <c r="R15">
+        <v>0.1699999999999999</v>
+      </c>
+      <c r="S15" t="s">
+        <v>489</v>
+      </c>
+      <c r="T15" t="s">
+        <v>507</v>
+      </c>
+      <c r="U15" t="s">
+        <v>508</v>
+      </c>
+      <c r="V15" t="s">
+        <v>515</v>
+      </c>
+      <c r="W15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="1">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16">
+        <v>3000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" t="s">
+        <v>280</v>
+      </c>
+      <c r="I16" t="s">
+        <v>288</v>
+      </c>
+      <c r="J16" t="s">
+        <v>293</v>
+      </c>
+      <c r="K16" t="s">
+        <v>433</v>
+      </c>
+      <c r="L16">
+        <v>-72.43563715616862</v>
+      </c>
+      <c r="M16">
+        <v>88.07162195444107</v>
+      </c>
+      <c r="N16">
+        <v>0.002852774690836668</v>
+      </c>
+      <c r="O16">
+        <v>13.8156657373288</v>
+      </c>
+      <c r="P16">
+        <v>3.243047319302416</v>
+      </c>
+      <c r="Q16">
+        <v>0.13772</v>
+      </c>
+      <c r="R16">
+        <v>0.1699999999999998</v>
+      </c>
+      <c r="S16" t="s">
+        <v>489</v>
+      </c>
+      <c r="T16" t="s">
+        <v>507</v>
+      </c>
+      <c r="U16" t="s">
+        <v>508</v>
+      </c>
+      <c r="V16" t="s">
+        <v>515</v>
+      </c>
+      <c r="W16" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="1">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17">
+        <v>2700</v>
+      </c>
+      <c r="F17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" t="s">
+        <v>280</v>
+      </c>
+      <c r="I17" t="s">
+        <v>288</v>
+      </c>
+      <c r="J17" t="s">
+        <v>290</v>
+      </c>
+      <c r="K17" t="s">
+        <v>442</v>
+      </c>
+      <c r="L17">
+        <v>-64.85472564697265</v>
+      </c>
+      <c r="M17">
+        <v>128.656193614006</v>
+      </c>
+      <c r="N17">
+        <v>0.1770849823951721</v>
+      </c>
+      <c r="O17">
+        <v>20.60385209688051</v>
+      </c>
+      <c r="P17">
+        <v>3.534351351467842</v>
+      </c>
+      <c r="Q17">
+        <v>0.04169999999999996</v>
+      </c>
+      <c r="R17">
+        <v>0.1710280373831777</v>
+      </c>
+      <c r="S17" t="s">
+        <v>457</v>
+      </c>
+      <c r="T17" t="s">
+        <v>507</v>
+      </c>
+      <c r="U17" t="s">
+        <v>508</v>
+      </c>
+      <c r="V17" t="s">
+        <v>512</v>
+      </c>
+      <c r="W17" t="s">
         <v>525</v>
       </c>
     </row>
